--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_18.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>854176.7341044402</v>
+        <v>850744.9595356922</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>284149.514098252</v>
+        <v>284149.5140982516</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10241536.80043315</v>
+        <v>10241536.80043314</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>231.8635835046281</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>263.2420339516669</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>263.2420339516669</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,16 +671,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>206.9091621893709</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.097100052852153</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -713,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>20.85732126240478</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.2420339516669</v>
+        <v>263.2420339516666</v>
       </c>
     </row>
     <row r="3">
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>125.6384340685011</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -786,19 +786,19 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>11.52217291123907</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>199.9652070090748</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9381254702172</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -832,16 +832,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>159.8350691069752</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>51.96190712986733</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>17.44799951871616</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -896,19 +896,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>243.2386572690347</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>243.2386572690346</v>
       </c>
       <c r="W5" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
     </row>
     <row r="6">
@@ -975,25 +975,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>119.4364635729388</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.2681884137393</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>86.80307722268741</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1035,13 +1035,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>163.3657543017353</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1105,13 +1105,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>175.1311939478778</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>175.1311939478779</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>104.2215429136234</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481167</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1190,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>31.63855909934253</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>18.37682225755684</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -1312,7 +1312,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853698</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,16 +1333,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>200.5196897930034</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>213.9831447597786</v>
       </c>
       <c r="C11" t="n">
-        <v>320.9596570282557</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,13 +1415,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
         <v>251.2241675082893</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1461,7 +1461,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.5310119231968</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H12" t="n">
         <v>104.3883541553076</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1531,13 +1531,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>17.36390763391859</v>
       </c>
       <c r="E13" t="n">
-        <v>18.37682225755673</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>167.3098022590509</v>
@@ -1549,7 +1549,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1616,16 +1616,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>146.7873018975926</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,22 +1652,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>21.21133664189227</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1771,22 +1771,22 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>18.37682225755673</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1813,13 +1813,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>156.127162662147</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1844,10 +1844,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1859,10 +1859,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>39.01104463634084</v>
+        <v>86.53181234590755</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1935,7 +1935,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.5310119231968</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H18" t="n">
         <v>104.3883541553076</v>
@@ -1971,7 +1971,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S18" t="n">
-        <v>156.5912426325231</v>
+        <v>156.5912426325226</v>
       </c>
       <c r="T18" t="n">
         <v>196.8897623984489</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>94.63926978364054</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2056,16 +2056,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>189.5968436493441</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>252.7077160573369</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2129,19 +2129,19 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>41.23908004802646</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2169,7 +2169,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933841</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>136.5310119231965</v>
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>55.04515004530766</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2281,19 +2281,19 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>83.5983059739478</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2302,7 +2302,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>315.1149038119368</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>354.3958624239611</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2369,10 +2369,10 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2384,7 +2384,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S24" t="n">
-        <v>156.5912426325231</v>
+        <v>156.591242632523</v>
       </c>
       <c r="T24" t="n">
         <v>196.8897623984489</v>
@@ -2479,19 +2479,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>52.10844059186277</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>10.46499054460243</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2536,7 +2536,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2555,7 +2555,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>64.17110004111969</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2564,13 +2564,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>303.5313813159055</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2600,28 +2600,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2710,16 +2710,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>77.15919157187223</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2779,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>25.31590541686252</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>110.634010970313</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2837,16 +2837,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>11.75685339834098</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2855,7 +2855,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2937,7 +2937,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>205.6826957773045</v>
       </c>
     </row>
     <row r="31">
@@ -2953,25 +2953,25 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>15.1823972622756</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -3010,13 +3010,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>155.2114886365808</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3035,7 +3035,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3044,10 +3044,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,22 +3077,22 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S32" t="n">
-        <v>107.4792634994631</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>221.8199080766637</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3184,13 +3184,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>43.31785343913998</v>
+        <v>6.59601561836874</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3247,13 +3247,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,22 +3263,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>389.0396295043333</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3320,19 +3320,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>78.43452536694512</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3430,7 +3430,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3439,10 +3439,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>101.7806877295493</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3490,7 +3490,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>38.96575664273605</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3515,10 +3515,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>151.9313162448613</v>
@@ -3548,19 +3548,19 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>150.8020682067237</v>
+        <v>123.5492650282466</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3673,10 +3673,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3712,7 +3712,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>28.10115714452303</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3727,7 +3727,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>171.7498680634313</v>
       </c>
     </row>
     <row r="41">
@@ -3740,10 +3740,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>275.4805812731082</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>339.039918580681</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3803,7 +3803,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3837,7 +3837,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825084</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,13 +3895,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>155.886038567534</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3949,7 +3949,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3958,13 +3958,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>171.7498680634313</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>109.9625877735436</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>323.9918595228957</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4034,16 +4034,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4074,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825084</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>128.7835007017902</v>
+        <v>100.5088970641053</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>552.8614515073797</v>
+        <v>765.9990901358872</v>
       </c>
       <c r="C2" t="n">
-        <v>286.9604071117565</v>
+        <v>765.9990901358872</v>
       </c>
       <c r="D2" t="n">
-        <v>21.05936271613335</v>
+        <v>765.9990901358872</v>
       </c>
       <c r="E2" t="n">
-        <v>21.05936271613335</v>
+        <v>765.9990901358872</v>
       </c>
       <c r="F2" t="n">
-        <v>21.05936271613335</v>
+        <v>765.9990901358872</v>
       </c>
       <c r="G2" t="n">
-        <v>21.05936271613335</v>
+        <v>500.0980457402644</v>
       </c>
       <c r="H2" t="n">
-        <v>21.05936271613335</v>
+        <v>234.1970013446415</v>
       </c>
       <c r="I2" t="n">
-        <v>21.05936271613335</v>
+        <v>25.19784761800419</v>
       </c>
       <c r="J2" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K2" t="n">
-        <v>135.7250809573683</v>
+        <v>135.7250809573682</v>
       </c>
       <c r="L2" t="n">
-        <v>330.2546714142364</v>
+        <v>330.2546714142361</v>
       </c>
       <c r="M2" t="n">
-        <v>563.3128681098028</v>
+        <v>563.3128681098024</v>
       </c>
       <c r="N2" t="n">
-        <v>785.5101925369336</v>
+        <v>785.5101925369329</v>
       </c>
       <c r="O2" t="n">
-        <v>950.1371873885148</v>
+        <v>950.137187388514</v>
       </c>
       <c r="P2" t="n">
-        <v>1052.968135806668</v>
+        <v>1052.968135806667</v>
       </c>
       <c r="Q2" t="n">
-        <v>1052.968135806668</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="R2" t="n">
-        <v>1052.968135806668</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="S2" t="n">
-        <v>1052.968135806668</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="T2" t="n">
-        <v>1052.968135806668</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="U2" t="n">
-        <v>1052.968135806668</v>
+        <v>1031.90013453151</v>
       </c>
       <c r="V2" t="n">
-        <v>1052.968135806668</v>
+        <v>1031.90013453151</v>
       </c>
       <c r="W2" t="n">
-        <v>1052.968135806668</v>
+        <v>1031.90013453151</v>
       </c>
       <c r="X2" t="n">
-        <v>1052.968135806668</v>
+        <v>1031.90013453151</v>
       </c>
       <c r="Y2" t="n">
-        <v>787.0670914110444</v>
+        <v>765.9990901358872</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>195.5123919972604</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="C3" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="D3" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="E3" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="F3" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="G3" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="H3" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I3" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J3" t="n">
-        <v>24.95018035683216</v>
+        <v>24.9501803568321</v>
       </c>
       <c r="K3" t="n">
-        <v>24.95018035683216</v>
+        <v>158.2210505399123</v>
       </c>
       <c r="L3" t="n">
-        <v>265.5537082516947</v>
+        <v>398.8245784347747</v>
       </c>
       <c r="M3" t="n">
-        <v>265.5537082516947</v>
+        <v>398.8245784347747</v>
       </c>
       <c r="N3" t="n">
-        <v>524.9036321565288</v>
+        <v>600.5536970360757</v>
       </c>
       <c r="O3" t="n">
-        <v>785.316696249021</v>
+        <v>860.9667611285678</v>
       </c>
       <c r="P3" t="n">
-        <v>977.3180709271197</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="Q3" t="n">
-        <v>1052.968135806668</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="R3" t="n">
-        <v>1052.968135806668</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="S3" t="n">
-        <v>1041.329577310466</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="T3" t="n">
-        <v>839.3445197255423</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="U3" t="n">
-        <v>611.1241909677472</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="V3" t="n">
-        <v>611.1241909677472</v>
+        <v>817.8160275749237</v>
       </c>
       <c r="W3" t="n">
-        <v>611.1241909677472</v>
+        <v>563.5786708467222</v>
       </c>
       <c r="X3" t="n">
-        <v>403.2726907622143</v>
+        <v>355.7271706411893</v>
       </c>
       <c r="Y3" t="n">
-        <v>195.5123919972604</v>
+        <v>147.9668718762354</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>182.5089274706538</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="C4" t="n">
-        <v>182.5089274706538</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="D4" t="n">
-        <v>182.5089274706538</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="E4" t="n">
-        <v>182.5089274706538</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="F4" t="n">
-        <v>182.5089274706538</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="G4" t="n">
-        <v>182.5089274706538</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="H4" t="n">
-        <v>21.05936271613335</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="I4" t="n">
-        <v>21.05936271613335</v>
+        <v>130.0221525919996</v>
       </c>
       <c r="J4" t="n">
-        <v>21.05936271613335</v>
+        <v>38.68360465423046</v>
       </c>
       <c r="K4" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="L4" t="n">
-        <v>54.48163939360305</v>
+        <v>54.48163939360296</v>
       </c>
       <c r="M4" t="n">
-        <v>100.1098670955241</v>
+        <v>100.1098670955239</v>
       </c>
       <c r="N4" t="n">
-        <v>150.08777394865</v>
+        <v>150.0877739486497</v>
       </c>
       <c r="O4" t="n">
-        <v>180.2341645716486</v>
+        <v>180.2341645716483</v>
       </c>
       <c r="P4" t="n">
-        <v>182.5089274706538</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="Q4" t="n">
-        <v>182.5089274706538</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="R4" t="n">
-        <v>182.5089274706538</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="S4" t="n">
-        <v>182.5089274706538</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="T4" t="n">
-        <v>182.5089274706538</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="U4" t="n">
-        <v>182.5089274706538</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="V4" t="n">
-        <v>182.5089274706538</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="W4" t="n">
-        <v>182.5089274706538</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="X4" t="n">
-        <v>182.5089274706538</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="Y4" t="n">
-        <v>182.5089274706538</v>
+        <v>182.5089274706535</v>
       </c>
     </row>
     <row r="5">
@@ -4541,46 +4541,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>546.7341079359765</v>
+        <v>579.9844679696339</v>
       </c>
       <c r="C5" t="n">
-        <v>546.7341079359765</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="D5" t="n">
-        <v>546.7341079359765</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E5" t="n">
-        <v>546.7341079359765</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F5" t="n">
-        <v>267.7881344992538</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G5" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H5" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I5" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J5" t="n">
-        <v>22.09252109618842</v>
+        <v>22.09252109618846</v>
       </c>
       <c r="K5" t="n">
-        <v>142.8373253438683</v>
+        <v>142.8373253438684</v>
       </c>
       <c r="L5" t="n">
-        <v>344.9085595412868</v>
+        <v>344.9085595412869</v>
       </c>
       <c r="M5" t="n">
-        <v>586.3582880173956</v>
+        <v>586.3582880173957</v>
       </c>
       <c r="N5" t="n">
-        <v>817.0829279823541</v>
+        <v>817.0829279823544</v>
       </c>
       <c r="O5" t="n">
-        <v>989.7620250901062</v>
+        <v>989.7620250901066</v>
       </c>
       <c r="P5" t="n">
         <v>1099.465256491931</v>
@@ -4601,16 +4601,16 @@
         <v>1104.626054809422</v>
       </c>
       <c r="V5" t="n">
-        <v>1104.626054809422</v>
+        <v>858.9304414063566</v>
       </c>
       <c r="W5" t="n">
-        <v>825.6800813726991</v>
+        <v>858.9304414063566</v>
       </c>
       <c r="X5" t="n">
-        <v>546.7341079359765</v>
+        <v>858.9304414063566</v>
       </c>
       <c r="Y5" t="n">
-        <v>546.7341079359765</v>
+        <v>579.9844679696339</v>
       </c>
     </row>
     <row r="6">
@@ -4620,31 +4620,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>936.4107177893536</v>
+        <v>355.783005382771</v>
       </c>
       <c r="C6" t="n">
-        <v>815.7678252914357</v>
+        <v>181.329976101644</v>
       </c>
       <c r="D6" t="n">
-        <v>666.8334156301844</v>
+        <v>181.329976101644</v>
       </c>
       <c r="E6" t="n">
-        <v>507.5959606247288</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F6" t="n">
-        <v>361.0614026516138</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G6" t="n">
-        <v>222.40666688016</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H6" t="n">
-        <v>109.772397078701</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I6" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J6" t="n">
-        <v>28.39914141318534</v>
+        <v>28.39914141318535</v>
       </c>
       <c r="K6" t="n">
         <v>165.799003153448</v>
@@ -4653,16 +4653,16 @@
         <v>411.954469746149</v>
       </c>
       <c r="M6" t="n">
-        <v>562.3310704112776</v>
+        <v>641.2451212288496</v>
       </c>
       <c r="N6" t="n">
-        <v>562.3310704112776</v>
+        <v>641.2451212288496</v>
       </c>
       <c r="O6" t="n">
-        <v>828.8278839945614</v>
+        <v>907.7419348121334</v>
       </c>
       <c r="P6" t="n">
-        <v>1025.71200399185</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Q6" t="n">
         <v>1104.626054809422</v>
@@ -4683,13 +4683,13 @@
         <v>1104.626054809422</v>
       </c>
       <c r="W6" t="n">
-        <v>1104.626054809422</v>
+        <v>939.6101413733256</v>
       </c>
       <c r="X6" t="n">
-        <v>1104.626054809422</v>
+        <v>731.7586411677928</v>
       </c>
       <c r="Y6" t="n">
-        <v>1104.626054809422</v>
+        <v>523.9983424028389</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="C7" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D7" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E7" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F7" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G7" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H7" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I7" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J7" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K7" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="L7" t="n">
-        <v>58.70189726492713</v>
+        <v>58.70189726492715</v>
       </c>
       <c r="M7" t="n">
-        <v>107.6904745160686</v>
+        <v>107.6904745160687</v>
       </c>
       <c r="N7" t="n">
         <v>160.9488293168851</v>
       </c>
       <c r="O7" t="n">
-        <v>194.1252445754622</v>
+        <v>194.1252445754623</v>
       </c>
       <c r="P7" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Q7" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="R7" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="S7" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="T7" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="U7" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="V7" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="W7" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="X7" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="Y7" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>962.9693282917585</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C8" t="n">
-        <v>857.6950425204218</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D8" t="n">
-        <v>857.6950425204218</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E8" t="n">
-        <v>471.9067899221776</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4817,13 +4817,13 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
@@ -4838,16 +4838,16 @@
         <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.942913862886</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W8" t="n">
-        <v>2113.174258592772</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X8" t="n">
-        <v>1739.708500331692</v>
+        <v>1750.153230744814</v>
       </c>
       <c r="Y8" t="n">
-        <v>1349.56916835588</v>
+        <v>1750.153230744814</v>
       </c>
     </row>
     <row r="9">
@@ -4857,67 +4857,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598709</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064346</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="C10" t="n">
-        <v>728.1289842064346</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="D10" t="n">
-        <v>728.1289842064346</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="E10" t="n">
-        <v>709.5665374816297</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="F10" t="n">
-        <v>562.6765899837193</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="G10" t="n">
-        <v>393.6767897220517</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545818</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064346</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064346</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064346</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064346</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064346</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064346</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064346</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064346</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064346</v>
+        <v>348.0202652891861</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>378.1446555862794</v>
+        <v>934.637173372437</v>
       </c>
       <c r="C11" t="n">
-        <v>53.94298182036446</v>
+        <v>565.6746564320254</v>
       </c>
       <c r="D11" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="E11" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="F11" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733128</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O11" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P11" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q11" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S11" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T11" t="n">
-        <v>2465.942913862886</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U11" t="n">
-        <v>2212.181128500978</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V11" t="n">
-        <v>1881.118241157407</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W11" t="n">
-        <v>1528.349585887293</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X11" t="n">
-        <v>1154.883827626213</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="Y11" t="n">
-        <v>764.7444956504012</v>
+        <v>1150.78176403888</v>
       </c>
     </row>
     <row r="12">
@@ -5094,19 +5094,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G12" t="n">
         <v>221.4284102424006</v>
@@ -5115,31 +5115,31 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K12" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L12" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M12" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N12" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O12" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P12" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R12" t="n">
         <v>2646.935720430048</v>
@@ -5163,7 +5163,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y12" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="13">
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D13" t="n">
-        <v>728.1289842064344</v>
+        <v>710.5896835661124</v>
       </c>
       <c r="E13" t="n">
-        <v>709.5665374816297</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="F13" t="n">
         <v>562.6765899837193</v>
@@ -5197,52 +5197,52 @@
         <v>99.59950625323012</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K13" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M13" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>898.3702206415335</v>
+        <v>1251.855211652197</v>
       </c>
       <c r="C14" t="n">
-        <v>529.4077037011218</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D14" t="n">
-        <v>529.4077037011218</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E14" t="n">
-        <v>529.4077037011218</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F14" t="n">
-        <v>529.4077037011218</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G14" t="n">
-        <v>529.4077037011218</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H14" t="n">
-        <v>202.2129837371247</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I14" t="n">
         <v>53.94298182036445</v>
@@ -5279,10 +5279,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
@@ -5300,28 +5300,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S14" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T14" t="n">
-        <v>2302.336936304455</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U14" t="n">
-        <v>2048.575150942547</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V14" t="n">
-        <v>2048.575150942547</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W14" t="n">
-        <v>2048.575150942547</v>
+        <v>2402.06014195321</v>
       </c>
       <c r="X14" t="n">
-        <v>1675.109392681467</v>
+        <v>2028.59438369213</v>
       </c>
       <c r="Y14" t="n">
-        <v>1284.970060705655</v>
+        <v>1638.455051716319</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C15" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H15" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I15" t="n">
         <v>53.94298182036445</v>
@@ -5379,19 +5379,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U15" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W15" t="n">
         <v>1572.325111207638</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C16" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D16" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E16" t="n">
-        <v>709.5665374816297</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F16" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G16" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H16" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I16" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J16" t="n">
         <v>53.94298182036445</v>
@@ -5440,46 +5440,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M16" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S16" t="n">
-        <v>728.1289842064344</v>
+        <v>570.4247794971948</v>
       </c>
       <c r="T16" t="n">
-        <v>728.1289842064344</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U16" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V16" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W16" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X16" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y16" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1954.141365880777</v>
+        <v>1791.109440255352</v>
       </c>
       <c r="C17" t="n">
-        <v>1954.141365880777</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D17" t="n">
-        <v>1595.875667274027</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E17" t="n">
-        <v>1210.087414675782</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F17" t="n">
-        <v>799.1015098861748</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G17" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H17" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L17" t="n">
         <v>881.2824271224076</v>
@@ -5531,34 +5531,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P17" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q17" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S17" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T17" t="n">
-        <v>2247.308246834949</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U17" t="n">
-        <v>1993.546461473041</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V17" t="n">
-        <v>1954.141365880777</v>
+        <v>2554.714530492243</v>
       </c>
       <c r="W17" t="n">
-        <v>1954.141365880777</v>
+        <v>2554.714530492243</v>
       </c>
       <c r="X17" t="n">
-        <v>1954.141365880777</v>
+        <v>2181.248772231163</v>
       </c>
       <c r="Y17" t="n">
-        <v>1954.141365880777</v>
+        <v>1791.109440255352</v>
       </c>
     </row>
     <row r="18">
@@ -5568,19 +5568,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C18" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G18" t="n">
         <v>221.4284102424006</v>
@@ -5589,7 +5589,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
         <v>129.2001442204943</v>
@@ -5607,16 +5607,16 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O18" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q18" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S18" t="n">
         <v>2488.762748073964</v>
@@ -5637,7 +5637,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y18" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="19">
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K19" t="n">
         <v>110.2451748866326</v>
@@ -5704,19 +5704,19 @@
         <v>728.1289842064344</v>
       </c>
       <c r="U19" t="n">
-        <v>536.6170209242687</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V19" t="n">
-        <v>281.9325327183818</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="W19" t="n">
-        <v>281.9325327183818</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="X19" t="n">
-        <v>53.94298182036446</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.94298182036446</v>
+        <v>149.5382038240418</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1208.982837814967</v>
+        <v>1865.381229508783</v>
       </c>
       <c r="C20" t="n">
-        <v>1208.982837814967</v>
+        <v>1496.418712568371</v>
       </c>
       <c r="D20" t="n">
-        <v>850.7171392082163</v>
+        <v>1138.15301396162</v>
       </c>
       <c r="E20" t="n">
-        <v>464.928886609972</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F20" t="n">
-        <v>53.94298182036446</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G20" t="n">
         <v>53.94298182036446</v>
@@ -5777,25 +5777,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S20" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T20" t="n">
-        <v>2247.308246834949</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U20" t="n">
-        <v>1993.546461473041</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V20" t="n">
-        <v>1951.890825060893</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W20" t="n">
-        <v>1599.122169790779</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X20" t="n">
-        <v>1599.122169790779</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="Y20" t="n">
-        <v>1208.982837814967</v>
+        <v>2251.981069572904</v>
       </c>
     </row>
     <row r="21">
@@ -5805,16 +5805,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C21" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F21" t="n">
         <v>359.3385232961344</v>
@@ -5829,22 +5829,22 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J21" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K21" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L21" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M21" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N21" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O21" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P21" t="n">
         <v>2525.076107152626</v>
@@ -5874,7 +5874,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y21" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2022.963088632153</v>
+        <v>256.4340909802017</v>
       </c>
       <c r="C22" t="n">
-        <v>2022.963088632153</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D22" t="n">
-        <v>2022.963088632153</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E22" t="n">
-        <v>2022.963088632153</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K22" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>2206.83913925958</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M22" t="n">
-        <v>2351.73700797761</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N22" t="n">
-        <v>2498.624145662039</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O22" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P22" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q22" t="n">
-        <v>2697.149091018223</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R22" t="n">
-        <v>2549.002432452407</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S22" t="n">
-        <v>2334.714009270569</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="T22" t="n">
-        <v>2107.405821939171</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="U22" t="n">
-        <v>2022.963088632153</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="V22" t="n">
-        <v>2022.963088632153</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="W22" t="n">
-        <v>2022.963088632153</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="X22" t="n">
-        <v>2022.963088632153</v>
+        <v>256.4340909802017</v>
       </c>
       <c r="Y22" t="n">
-        <v>2022.963088632153</v>
+        <v>256.4340909802017</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1443.489535627676</v>
+        <v>1139.146815977588</v>
       </c>
       <c r="C23" t="n">
-        <v>1443.489535627676</v>
+        <v>770.1842990371767</v>
       </c>
       <c r="D23" t="n">
-        <v>1085.223837020926</v>
+        <v>411.9186004304262</v>
       </c>
       <c r="E23" t="n">
-        <v>699.4355844226816</v>
+        <v>411.9186004304262</v>
       </c>
       <c r="F23" t="n">
-        <v>381.1377017843616</v>
+        <v>411.9186004304262</v>
       </c>
       <c r="G23" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H23" t="n">
         <v>53.94298182036446</v>
@@ -5987,13 +5987,13 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733127</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6017,22 +6017,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T23" t="n">
-        <v>2423.485734520779</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U23" t="n">
-        <v>2169.72394915887</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V23" t="n">
-        <v>2169.72394915887</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W23" t="n">
-        <v>1816.955293888756</v>
+        <v>2289.351746278602</v>
       </c>
       <c r="X23" t="n">
-        <v>1443.489535627676</v>
+        <v>1915.885988017522</v>
       </c>
       <c r="Y23" t="n">
-        <v>1443.489535627676</v>
+        <v>1525.74665604171</v>
       </c>
     </row>
     <row r="24">
@@ -6066,25 +6066,25 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J24" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K24" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L24" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M24" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N24" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O24" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P24" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018223</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>728.1289842064344</v>
+        <v>2169.853036130064</v>
       </c>
       <c r="C25" t="n">
-        <v>728.1289842064344</v>
+        <v>2169.853036130064</v>
       </c>
       <c r="D25" t="n">
-        <v>675.4941957298054</v>
+        <v>2169.853036130064</v>
       </c>
       <c r="E25" t="n">
-        <v>527.5811021474123</v>
+        <v>2169.853036130064</v>
       </c>
       <c r="F25" t="n">
-        <v>380.6911546495019</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G25" t="n">
-        <v>211.6913543878343</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H25" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K25" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L25" t="n">
-        <v>237.8190324477911</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M25" t="n">
-        <v>382.716901165821</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N25" t="n">
-        <v>529.6040388502502</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594903</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064344</v>
+        <v>2686.578393498422</v>
       </c>
       <c r="T25" t="n">
-        <v>728.1289842064344</v>
+        <v>2459.270206167024</v>
       </c>
       <c r="U25" t="n">
-        <v>728.1289842064344</v>
+        <v>2459.270206167024</v>
       </c>
       <c r="V25" t="n">
-        <v>728.1289842064344</v>
+        <v>2459.270206167024</v>
       </c>
       <c r="W25" t="n">
-        <v>728.1289842064344</v>
+        <v>2169.853036130064</v>
       </c>
       <c r="X25" t="n">
-        <v>728.1289842064344</v>
+        <v>2169.853036130064</v>
       </c>
       <c r="Y25" t="n">
-        <v>728.1289842064344</v>
+        <v>2169.853036130064</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1933.544000781331</v>
+        <v>1190.010945960184</v>
       </c>
       <c r="C26" t="n">
-        <v>1933.544000781331</v>
+        <v>1125.191652989356</v>
       </c>
       <c r="D26" t="n">
-        <v>1575.27830217458</v>
+        <v>766.9259543826058</v>
       </c>
       <c r="E26" t="n">
-        <v>1189.490049576336</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F26" t="n">
-        <v>778.5041447867286</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G26" t="n">
-        <v>360.5403366849155</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J26" t="n">
         <v>169.7108380533142</v>
@@ -6242,34 +6242,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P26" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R26" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S26" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T26" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U26" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="V26" t="n">
-        <v>2697.149091018222</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W26" t="n">
-        <v>2697.149091018222</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="X26" t="n">
-        <v>2323.683332757143</v>
+        <v>1190.010945960184</v>
       </c>
       <c r="Y26" t="n">
-        <v>1933.544000781331</v>
+        <v>1190.010945960184</v>
       </c>
     </row>
     <row r="27">
@@ -6279,73 +6279,73 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C27" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J27" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K27" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L27" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M27" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N27" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O27" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P27" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q27" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U27" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W27" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X27" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y27" t="n">
         <v>1156.713312237151</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>520.9088977430002</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C28" t="n">
-        <v>351.9727148150933</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D28" t="n">
-        <v>201.8560754027576</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K28" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L28" t="n">
-        <v>237.8190324477911</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M28" t="n">
-        <v>382.716901165821</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N28" t="n">
-        <v>529.6040388502502</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594903</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064344</v>
+        <v>2549.002432452407</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064344</v>
+        <v>2471.063855107082</v>
       </c>
       <c r="T28" t="n">
-        <v>728.1289842064344</v>
+        <v>2243.755667775683</v>
       </c>
       <c r="U28" t="n">
-        <v>728.1289842064344</v>
+        <v>2243.755667775683</v>
       </c>
       <c r="V28" t="n">
-        <v>728.1289842064344</v>
+        <v>2243.755667775683</v>
       </c>
       <c r="W28" t="n">
-        <v>728.1289842064344</v>
+        <v>2243.755667775683</v>
       </c>
       <c r="X28" t="n">
-        <v>728.1289842064344</v>
+        <v>2243.755667775683</v>
       </c>
       <c r="Y28" t="n">
-        <v>702.55736257324</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6437,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1268.68094731003</v>
+        <v>1426.303625751931</v>
       </c>
       <c r="C29" t="n">
-        <v>1268.68094731003</v>
+        <v>1057.341108811519</v>
       </c>
       <c r="D29" t="n">
-        <v>1268.68094731003</v>
+        <v>1057.341108811519</v>
       </c>
       <c r="E29" t="n">
-        <v>882.8926947117852</v>
+        <v>945.5895825788796</v>
       </c>
       <c r="F29" t="n">
-        <v>471.9067899221776</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036446</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I29" t="n">
         <v>53.94298182036446</v>
@@ -6485,28 +6485,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S29" t="n">
-        <v>2630.244792055442</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T29" t="n">
-        <v>2630.244792055442</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U29" t="n">
-        <v>2376.483006693534</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V29" t="n">
-        <v>2045.420119349963</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="W29" t="n">
-        <v>2045.420119349963</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="X29" t="n">
-        <v>2045.420119349963</v>
+        <v>1816.442957727742</v>
       </c>
       <c r="Y29" t="n">
-        <v>1655.280787374151</v>
+        <v>1426.303625751931</v>
       </c>
     </row>
     <row r="30">
@@ -6540,25 +6540,25 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J30" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K30" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L30" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M30" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N30" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O30" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P30" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018223</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C31" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D31" t="n">
-        <v>2022.963088632153</v>
+        <v>578.0123447940987</v>
       </c>
       <c r="E31" t="n">
-        <v>2022.963088632153</v>
+        <v>578.0123447940987</v>
       </c>
       <c r="F31" t="n">
-        <v>2022.963088632153</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G31" t="n">
-        <v>2022.963088632153</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H31" t="n">
-        <v>2022.963088632153</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I31" t="n">
-        <v>2022.963088632153</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K31" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>2206.83913925958</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M31" t="n">
-        <v>2351.73700797761</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N31" t="n">
-        <v>2498.624145662039</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O31" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P31" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q31" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S31" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T31" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U31" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V31" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W31" t="n">
-        <v>2407.731920981262</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X31" t="n">
-        <v>2179.742370083245</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y31" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1166.959449965771</v>
+        <v>1261.831893336434</v>
       </c>
       <c r="C32" t="n">
-        <v>797.9969330253591</v>
+        <v>892.8693763960225</v>
       </c>
       <c r="D32" t="n">
-        <v>439.7312344186087</v>
+        <v>534.603677789272</v>
       </c>
       <c r="E32" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="F32" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P32" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q32" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R32" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S32" t="n">
-        <v>2533.555488922995</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T32" t="n">
-        <v>2533.555488922995</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U32" t="n">
-        <v>2279.793703561087</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V32" t="n">
-        <v>2279.793703561087</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W32" t="n">
-        <v>1927.025048290972</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X32" t="n">
-        <v>1553.559290029893</v>
+        <v>1261.831893336434</v>
       </c>
       <c r="Y32" t="n">
-        <v>1553.559290029893</v>
+        <v>1261.831893336434</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6774,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K33" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L33" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M33" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N33" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O33" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P33" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018223</v>
@@ -6832,31 +6832,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.69838933464726</v>
+        <v>210.7222632714565</v>
       </c>
       <c r="C34" t="n">
-        <v>53.94298182036445</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K34" t="n">
         <v>110.2451748866326</v>
@@ -6895,13 +6895,13 @@
         <v>728.1289842064344</v>
       </c>
       <c r="W34" t="n">
-        <v>728.1289842064344</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="X34" t="n">
-        <v>500.1394333084171</v>
+        <v>210.7222632714565</v>
       </c>
       <c r="Y34" t="n">
-        <v>279.346854164887</v>
+        <v>210.7222632714565</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>882.8926947117852</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="C35" t="n">
-        <v>882.8926947117852</v>
+        <v>1601.952160546617</v>
       </c>
       <c r="D35" t="n">
-        <v>882.8926947117852</v>
+        <v>1243.686461939866</v>
       </c>
       <c r="E35" t="n">
-        <v>882.8926947117852</v>
+        <v>857.8982093416219</v>
       </c>
       <c r="F35" t="n">
-        <v>471.9067899221776</v>
+        <v>446.9123045520143</v>
       </c>
       <c r="G35" t="n">
         <v>53.94298182036445</v>
@@ -6968,19 +6968,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U35" t="n">
-        <v>2443.387305656314</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V35" t="n">
-        <v>2112.324418312743</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W35" t="n">
-        <v>2033.097625012799</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X35" t="n">
-        <v>1659.631866751719</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y35" t="n">
-        <v>1269.492534775907</v>
+        <v>1970.914677487028</v>
       </c>
     </row>
     <row r="36">
@@ -6990,73 +6990,73 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C36" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I36" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K36" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L36" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M36" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N36" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O36" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q36" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W36" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X36" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y36" t="n">
         <v>1156.713312237151</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>325.6879402326646</v>
+        <v>2476.141276043805</v>
       </c>
       <c r="C37" t="n">
-        <v>156.7517573047577</v>
+        <v>2307.205093115898</v>
       </c>
       <c r="D37" t="n">
-        <v>156.7517573047577</v>
+        <v>2307.205093115898</v>
       </c>
       <c r="E37" t="n">
-        <v>156.7517573047577</v>
+        <v>2159.291999533505</v>
       </c>
       <c r="F37" t="n">
-        <v>156.7517573047577</v>
+        <v>2159.291999533505</v>
       </c>
       <c r="G37" t="n">
-        <v>156.7517573047577</v>
+        <v>2159.291999533505</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036445</v>
+        <v>2159.291999533505</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K37" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L37" t="n">
-        <v>237.8190324477911</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M37" t="n">
-        <v>382.716901165821</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N37" t="n">
-        <v>529.6040388502502</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O37" t="n">
-        <v>649.2617893594903</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R37" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S37" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T37" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U37" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V37" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W37" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X37" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y37" t="n">
-        <v>507.3364050629043</v>
+        <v>2657.789740874045</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1331.377835177124</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="C38" t="n">
-        <v>1331.377835177124</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D38" t="n">
-        <v>1331.377835177124</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E38" t="n">
-        <v>945.5895825788796</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F38" t="n">
-        <v>534.603677789272</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G38" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H38" t="n">
         <v>207.4089578252748</v>
@@ -7184,40 +7184,40 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P38" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q38" t="n">
+        <v>2697.149091018223</v>
+      </c>
+      <c r="R38" t="n">
+        <v>2697.149091018223</v>
+      </c>
+      <c r="S38" t="n">
+        <v>2697.149091018223</v>
+      </c>
+      <c r="T38" t="n">
+        <v>2697.149091018223</v>
+      </c>
+      <c r="U38" t="n">
         <v>2697.149091018222</v>
       </c>
-      <c r="R38" t="n">
-        <v>2642.120401548716</v>
-      </c>
-      <c r="S38" t="n">
-        <v>2465.942913862886</v>
-      </c>
-      <c r="T38" t="n">
-        <v>2247.308246834948</v>
-      </c>
-      <c r="U38" t="n">
-        <v>2247.308246834948</v>
-      </c>
       <c r="V38" t="n">
-        <v>2094.982925414015</v>
+        <v>2572.351853615953</v>
       </c>
       <c r="W38" t="n">
-        <v>2094.982925414015</v>
+        <v>2572.351853615953</v>
       </c>
       <c r="X38" t="n">
-        <v>1721.517167152936</v>
+        <v>2198.886095354873</v>
       </c>
       <c r="Y38" t="n">
-        <v>1331.377835177124</v>
+        <v>1808.746763379062</v>
       </c>
     </row>
     <row r="39">
@@ -7254,22 +7254,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K39" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L39" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M39" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N39" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O39" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P39" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018223</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>699.7439769897445</v>
+        <v>2342.015910972395</v>
       </c>
       <c r="C40" t="n">
-        <v>530.8077940618376</v>
+        <v>2173.079728044489</v>
       </c>
       <c r="D40" t="n">
-        <v>380.6911546495019</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E40" t="n">
-        <v>380.6911546495019</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F40" t="n">
-        <v>380.6911546495019</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G40" t="n">
-        <v>211.6913543878343</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K40" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L40" t="n">
-        <v>237.8190324477911</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M40" t="n">
-        <v>382.716901165821</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N40" t="n">
-        <v>529.6040388502502</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594903</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T40" t="n">
-        <v>699.7439769897445</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U40" t="n">
-        <v>699.7439769897445</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V40" t="n">
-        <v>699.7439769897445</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W40" t="n">
-        <v>699.7439769897445</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X40" t="n">
-        <v>699.7439769897445</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y40" t="n">
-        <v>699.7439769897445</v>
+        <v>2523.664375802635</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1920.409918978288</v>
+        <v>1546.94416071721</v>
       </c>
       <c r="C41" t="n">
-        <v>1551.447402037877</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D41" t="n">
-        <v>1193.181703431126</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E41" t="n">
-        <v>807.3934508328821</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F41" t="n">
-        <v>396.4075460432745</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533133</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733118</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224067</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M41" t="n">
-        <v>1362.238747280442</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P41" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q41" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S41" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T41" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U41" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V41" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W41" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X41" t="n">
-        <v>2697.149091018222</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y41" t="n">
-        <v>2307.00975904241</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="42">
@@ -7464,40 +7464,40 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J42" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K42" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L42" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M42" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N42" t="n">
         <v>1748.695370517453</v>
@@ -7533,7 +7533,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y42" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2342.015910972395</v>
+        <v>211.4036268380756</v>
       </c>
       <c r="C43" t="n">
-        <v>2173.079728044488</v>
+        <v>211.4036268380756</v>
       </c>
       <c r="D43" t="n">
-        <v>2022.963088632152</v>
+        <v>211.4036268380756</v>
       </c>
       <c r="E43" t="n">
-        <v>2022.963088632152</v>
+        <v>211.4036268380756</v>
       </c>
       <c r="F43" t="n">
-        <v>2022.963088632152</v>
+        <v>211.4036268380756</v>
       </c>
       <c r="G43" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H43" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I43" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J43" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K43" t="n">
-        <v>2079.26528169842</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L43" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M43" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N43" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O43" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P43" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q43" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R43" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S43" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T43" t="n">
-        <v>2697.149091018222</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U43" t="n">
-        <v>2697.149091018222</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V43" t="n">
-        <v>2697.149091018222</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="W43" t="n">
-        <v>2697.149091018222</v>
+        <v>211.4036268380756</v>
       </c>
       <c r="X43" t="n">
-        <v>2697.149091018222</v>
+        <v>211.4036268380756</v>
       </c>
       <c r="Y43" t="n">
-        <v>2523.664375802635</v>
+        <v>211.4036268380756</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1463.674302457627</v>
+        <v>1546.94416071721</v>
       </c>
       <c r="C44" t="n">
-        <v>1094.711785517216</v>
+        <v>1177.981643776798</v>
       </c>
       <c r="D44" t="n">
-        <v>736.4460869104653</v>
+        <v>1177.981643776798</v>
       </c>
       <c r="E44" t="n">
-        <v>736.4460869104653</v>
+        <v>792.1933911785536</v>
       </c>
       <c r="F44" t="n">
-        <v>625.3727659270879</v>
+        <v>381.2074863889461</v>
       </c>
       <c r="G44" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H44" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J44" t="n">
         <v>169.7108380533142</v>
@@ -7667,31 +7667,31 @@
         <v>2544.691559791253</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R44" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S44" t="n">
-        <v>2520.971603332392</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T44" t="n">
-        <v>2520.971603332392</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U44" t="n">
-        <v>2520.971603332392</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V44" t="n">
-        <v>2189.908715988821</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W44" t="n">
-        <v>1837.140060718707</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X44" t="n">
-        <v>1463.674302457627</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y44" t="n">
-        <v>1463.674302457627</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="45">
@@ -7701,34 +7701,34 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H45" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J45" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K45" t="n">
-        <v>309.1903022614629</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L45" t="n">
         <v>713.8062203571349</v>
@@ -7746,31 +7746,31 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q45" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W45" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X45" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y45" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>53.94298182036444</v>
+        <v>2159.291999533505</v>
       </c>
       <c r="C46" t="n">
-        <v>53.94298182036444</v>
+        <v>2159.291999533505</v>
       </c>
       <c r="D46" t="n">
-        <v>53.94298182036444</v>
+        <v>2159.291999533505</v>
       </c>
       <c r="E46" t="n">
-        <v>53.94298182036444</v>
+        <v>2159.291999533505</v>
       </c>
       <c r="F46" t="n">
-        <v>53.94298182036444</v>
+        <v>2159.291999533505</v>
       </c>
       <c r="G46" t="n">
-        <v>53.94298182036444</v>
+        <v>2159.291999533505</v>
       </c>
       <c r="H46" t="n">
-        <v>53.94298182036444</v>
+        <v>2159.291999533505</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036444</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94298182036444</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K46" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L46" t="n">
-        <v>237.819032447791</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M46" t="n">
-        <v>382.716901165821</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N46" t="n">
-        <v>529.60403885025</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594902</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R46" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S46" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T46" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U46" t="n">
-        <v>598.0446400632119</v>
+        <v>2595.624952569632</v>
       </c>
       <c r="V46" t="n">
-        <v>343.360151857325</v>
+        <v>2340.940464363745</v>
       </c>
       <c r="W46" t="n">
-        <v>53.94298182036444</v>
+        <v>2340.940464363745</v>
       </c>
       <c r="X46" t="n">
-        <v>53.94298182036444</v>
+        <v>2340.940464363745</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.94298182036444</v>
+        <v>2340.940464363745</v>
       </c>
     </row>
   </sheetData>
@@ -8058,16 +8058,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>129.8481964236087</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>129.591740357718</v>
+        <v>129.5917403577181</v>
       </c>
       <c r="N3" t="n">
-        <v>380.4370814350383</v>
+        <v>322.2342477951059</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>133.663080786811</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8301,7 +8301,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>274.9430030574977</v>
+        <v>354.6541654994895</v>
       </c>
       <c r="N6" t="n">
         <v>111.7499598249992</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270189</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8775,7 +8775,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -8787,7 +8787,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9255,13 +9255,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>274.4264991783519</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9492,10 +9492,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360588</v>
       </c>
       <c r="P21" t="n">
-        <v>199.0269485415595</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9714,10 +9714,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9951,10 +9951,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9969,7 +9969,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10188,10 +10188,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10209,7 +10209,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,7 +10428,7 @@
         <v>50.07369958270192</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10446,7 +10446,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10674,7 +10674,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10683,7 +10683,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10832,7 +10832,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119837</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
@@ -10902,7 +10902,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142012</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10920,7 +10920,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720729</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11136,19 +11136,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050818</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11315,7 +11315,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599039</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11394,7 +11394,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>166.6588033951772</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22544,13 +22544,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>150.8702581588525</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>102.0308578193407</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>91.44100766901607</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22559,16 +22559,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>415.2102214038314</v>
+        <v>151.9681874521648</v>
       </c>
       <c r="H2" t="n">
-        <v>338.5273214908784</v>
+        <v>75.28528753921177</v>
       </c>
       <c r="I2" t="n">
-        <v>206.9091621893709</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.097100052852073</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22601,7 +22601,7 @@
         <v>222.6908602868995</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3382516189322</v>
+        <v>230.4809303565274</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22613,7 +22613,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.9959047043867</v>
+        <v>122.995904704387</v>
       </c>
     </row>
     <row r="3">
@@ -22623,10 +22623,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>40.89474958136628</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -22644,7 +22644,7 @@
         <v>111.757373777286</v>
       </c>
       <c r="I3" t="n">
-        <v>87.69233988828962</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22671,22 +22671,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>97.08446202703753</v>
+        <v>97.08446202703756</v>
       </c>
       <c r="S3" t="n">
-        <v>159.2415484220463</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -22720,16 +22720,16 @@
         <v>167.9494798159088</v>
       </c>
       <c r="H4" t="n">
-        <v>2.023134740338435</v>
+        <v>161.8582038473137</v>
       </c>
       <c r="I4" t="n">
-        <v>154.2024705022107</v>
+        <v>102.2405633723434</v>
       </c>
       <c r="J4" t="n">
-        <v>90.42516245839141</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>17.44799951871611</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22747,7 +22747,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.68702246598916</v>
+        <v>82.68702246598919</v>
       </c>
       <c r="R4" t="n">
         <v>175.4274210366964</v>
@@ -22784,19 +22784,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>89.11637806865207</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>78.52652791832747</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>130.719532039356</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>171.9232912582848</v>
+        <v>415.1619485273195</v>
       </c>
       <c r="H5" t="n">
         <v>338.0329468943008</v>
@@ -22841,16 +22841,16 @@
         <v>251.3343897888113</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>84.51360120110027</v>
       </c>
       <c r="W5" t="n">
-        <v>73.08445501505759</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>93.57458697611361</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>110.0814249536981</v>
       </c>
     </row>
     <row r="6">
@@ -22863,25 +22863,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>53.27203541537698</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22923,13 +22923,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>88.32922885918427</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22993,13 +22993,13 @@
         <v>222.9160118599466</v>
       </c>
       <c r="T7" t="n">
-        <v>52.54455953715794</v>
+        <v>227.6757534850358</v>
       </c>
       <c r="U7" t="n">
         <v>286.3155846423218</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>77.0064493759501</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -23021,25 +23021,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>261.0513488573842</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23078,16 +23078,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>338.0925415791265</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23185,13 +23185,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>128.0571403890123</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -23200,7 +23200,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23221,16 +23221,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491428</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>24.51541566508084</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>168.750696903702</v>
       </c>
       <c r="C11" t="n">
-        <v>44.31323474275183</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23276,7 +23276,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,13 +23303,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23419,13 +23419,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>131.2515653842938</v>
       </c>
       <c r="E13" t="n">
-        <v>128.0571403890124</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
         <v>212.1455389500189</v>
@@ -23504,16 +23504,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>5.144014347268666</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,22 +23540,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>328.0296320755207</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23659,22 +23659,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>128.0571403890124</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>56.01837628787186</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23732,10 +23732,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23747,10 +23747,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,25 +23780,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>288.7412138337941</v>
+        <v>241.2204461242274</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>85.19271039829675</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23944,16 +23944,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>96.68503059263364</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23966,22 +23966,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>129.2226540149249</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>323.9227727643571</v>
@@ -24017,19 +24017,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>286.5131784221085</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24127,7 +24127,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>112.2016710533202</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24136,7 +24136,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>167.3098022590509</v>
@@ -24169,19 +24169,19 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>202.6835682680299</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24190,7 +24190,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24203,25 +24203,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>91.76114192977468</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>59.3883075968339</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
         <v>151.9313162448613</v>
@@ -24257,10 +24257,10 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24272,7 +24272,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24367,19 +24367,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>96.50703242634958</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
         <v>134.9656217923382</v>
@@ -24412,10 +24412,10 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S25" t="n">
-        <v>212.1455389500189</v>
+        <v>201.6805484054165</v>
       </c>
       <c r="T25" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2818742419777</v>
@@ -24424,7 +24424,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24443,7 +24443,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>301.1017917298879</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24452,13 +24452,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>20.39139144845166</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>151.9313162448613</v>
@@ -24488,28 +24488,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24598,16 +24598,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24646,13 +24646,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>212.1455389500189</v>
+        <v>134.9863473781467</v>
       </c>
       <c r="T28" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2818742419777</v>
@@ -24667,7 +24667,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>193.2687479352323</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24677,28 +24677,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>271.2963591019487</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,16 +24725,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S29" t="n">
-        <v>162.6588594106305</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24743,7 +24743,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24841,25 +24841,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>130.2386507606556</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24898,13 +24898,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>63.37316471551401</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24914,7 +24914,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24923,7 +24923,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -24932,10 +24932,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24965,22 +24965,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>66.93644930950836</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>147.9111926018053</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -25072,13 +25072,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>123.9289676594879</v>
+        <v>160.6508054802591</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25135,13 +25135,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25151,22 +25151,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>24.74454051646165</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
@@ -25208,19 +25208,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>270.8064433504679</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25318,7 +25318,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25327,10 +25327,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
-        <v>54.39020111224588</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>45.19995918853699</v>
@@ -25378,7 +25378,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>179.6188967093588</v>
       </c>
     </row>
     <row r="38">
@@ -25388,7 +25388,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25403,10 +25403,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25436,19 +25436,19 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>176.9501902634112</v>
+        <v>204.2029934418883</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25561,10 +25561,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
         <v>134.9656217923382</v>
@@ -25600,7 +25600,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>196.9339483135612</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
         <v>286.2818742419777</v>
@@ -25615,7 +25615,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>46.83478528866354</v>
       </c>
     </row>
     <row r="41">
@@ -25628,10 +25628,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>89.79231049789934</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25640,7 +25640,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>74.744251440114</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
@@ -25691,7 +25691,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25783,13 +25783,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25798,7 +25798,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>11.42376369151691</v>
       </c>
       <c r="H43" t="n">
         <v>156.1708888417951</v>
@@ -25837,7 +25837,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2818742419777</v>
@@ -25846,13 +25846,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.83478528866354</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25862,28 +25862,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>296.9134579681678</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>89.79231049789928</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,7 +25913,7 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
         <v>216.4483203576578</v>
@@ -25922,16 +25922,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26041,7 +26041,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>45.19995918853699</v>
@@ -26077,13 +26077,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>157.4983735401875</v>
+        <v>185.7729771778725</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>467445.7869376002</v>
+        <v>467445.7869376</v>
       </c>
     </row>
     <row r="3">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>769512.6051115737</v>
+        <v>769512.6051115738</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>769512.6051115738</v>
+        <v>769512.6051115737</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>769512.6051115738</v>
+        <v>769512.6051115737</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>769512.6051115737</v>
+        <v>769512.6051115738</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>769512.6051115737</v>
+        <v>769512.6051115738</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>769512.6051115735</v>
+        <v>769512.6051115737</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>769512.6051115735</v>
+        <v>769512.6051115737</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>769512.6051115735</v>
+        <v>769512.6051115737</v>
       </c>
     </row>
   </sheetData>
@@ -26314,16 +26314,16 @@
         <v>156006.1355264978</v>
       </c>
       <c r="C2" t="n">
-        <v>159463.6497950859</v>
+        <v>159463.6497950858</v>
       </c>
       <c r="D2" t="n">
-        <v>260237.3490141817</v>
+        <v>260237.3490141816</v>
       </c>
       <c r="E2" t="n">
-        <v>260237.3490141817</v>
+        <v>260237.3490141816</v>
       </c>
       <c r="F2" t="n">
-        <v>260237.3490141817</v>
+        <v>260237.3490141816</v>
       </c>
       <c r="G2" t="n">
         <v>260237.3490141817</v>
@@ -26341,16 +26341,16 @@
         <v>260237.3490141817</v>
       </c>
       <c r="L2" t="n">
+        <v>260237.3490141817</v>
+      </c>
+      <c r="M2" t="n">
         <v>260237.3490141816</v>
       </c>
-      <c r="M2" t="n">
-        <v>260237.3490141817</v>
-      </c>
       <c r="N2" t="n">
-        <v>260237.3490141817</v>
+        <v>260237.3490141816</v>
       </c>
       <c r="O2" t="n">
-        <v>260237.3490141816</v>
+        <v>260237.3490141818</v>
       </c>
       <c r="P2" t="n">
         <v>260237.3490141816</v>
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>110394.4548749498</v>
+        <v>110394.4548749495</v>
       </c>
       <c r="C3" t="n">
-        <v>15106.68758438899</v>
+        <v>15106.68758438935</v>
       </c>
       <c r="D3" t="n">
-        <v>417183.6221536882</v>
+        <v>417183.6221536879</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -26387,10 +26387,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68875.69873124991</v>
+        <v>68875.69873124985</v>
       </c>
       <c r="K3" t="n">
-        <v>3323.773824475238</v>
+        <v>3323.773824475296</v>
       </c>
       <c r="L3" t="n">
         <v>100763.3119392804</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16565.16787800056</v>
+        <v>16958.01308307726</v>
       </c>
       <c r="C4" t="n">
-        <v>16598.44320087451</v>
+        <v>16991.84893966586</v>
       </c>
       <c r="D4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="E4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="F4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="G4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="H4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="I4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="J4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="K4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="L4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="M4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="N4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="O4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="P4" t="n">
-        <v>17813.71306019598</v>
+        <v>18228.92756966326</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26467,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>50134.40740683336</v>
+        <v>50134.40740683334</v>
       </c>
       <c r="C5" t="n">
         <v>51181.37951678014</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="F5" t="n">
         <v>49231.47806340946</v>
       </c>
       <c r="G5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="H5" t="n">
         <v>49231.47806340947</v>
@@ -26491,13 +26491,13 @@
         <v>49231.47806340947</v>
       </c>
       <c r="J5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="K5" t="n">
         <v>49231.47806340947</v>
       </c>
       <c r="L5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="M5" t="n">
         <v>49231.47806340946</v>
@@ -26506,10 +26506,10 @@
         <v>49231.47806340946</v>
       </c>
       <c r="O5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="P5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-21087.89463328595</v>
+        <v>-21480.73983836232</v>
       </c>
       <c r="C6" t="n">
-        <v>76577.13949304221</v>
+        <v>76183.73375425048</v>
       </c>
       <c r="D6" t="n">
-        <v>-257619.064263112</v>
+        <v>-258034.278772579</v>
       </c>
       <c r="E6" t="n">
-        <v>193192.1578905762</v>
+        <v>192776.9433811089</v>
       </c>
       <c r="F6" t="n">
-        <v>193192.1578905762</v>
+        <v>192776.9433811089</v>
       </c>
       <c r="G6" t="n">
-        <v>193192.1578905762</v>
+        <v>192776.943381109</v>
       </c>
       <c r="H6" t="n">
-        <v>193192.1578905762</v>
+        <v>192776.943381109</v>
       </c>
       <c r="I6" t="n">
-        <v>193192.1578905762</v>
+        <v>192776.9433811089</v>
       </c>
       <c r="J6" t="n">
-        <v>124316.4591593263</v>
+        <v>123901.2446498591</v>
       </c>
       <c r="K6" t="n">
-        <v>189868.384066101</v>
+        <v>189453.1695566337</v>
       </c>
       <c r="L6" t="n">
-        <v>92428.84595129573</v>
+        <v>92013.63144182862</v>
       </c>
       <c r="M6" t="n">
-        <v>193192.1578905762</v>
+        <v>192776.9433811089</v>
       </c>
       <c r="N6" t="n">
-        <v>193192.1578905762</v>
+        <v>192776.9433811089</v>
       </c>
       <c r="O6" t="n">
-        <v>193192.1578905762</v>
+        <v>192776.943381109</v>
       </c>
       <c r="P6" t="n">
-        <v>193192.1578905762</v>
+        <v>192776.9433811089</v>
       </c>
     </row>
   </sheetData>
@@ -26735,19 +26735,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.01338268678962</v>
+        <v>23.01338268678938</v>
       </c>
       <c r="C3" t="n">
-        <v>35.02126071912529</v>
+        <v>35.02126071912534</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="G3" t="n">
         <v>377.7436642170867</v>
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.2420339516669</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="C4" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="F4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="G4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="H4" t="n">
         <v>674.2872727545557</v>
@@ -26811,13 +26811,13 @@
         <v>674.2872727545557</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>674.2872727545557</v>
       </c>
       <c r="L4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="M4" t="n">
         <v>674.2872727545556</v>
@@ -26826,10 +26826,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
     </row>
   </sheetData>
@@ -26957,13 +26957,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.01338268678962</v>
+        <v>23.01338268678938</v>
       </c>
       <c r="C3" t="n">
-        <v>12.00787803233568</v>
+        <v>12.00787803233596</v>
       </c>
       <c r="D3" t="n">
-        <v>342.7224034979615</v>
+        <v>342.7224034979613</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.2420339516669</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="C4" t="n">
-        <v>12.91447975068854</v>
+        <v>12.91447975068888</v>
       </c>
       <c r="D4" t="n">
-        <v>398.1307590522003</v>
+        <v>398.1307590522001</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27033,13 +27033,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.2420339516668</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="K4" t="n">
-        <v>12.91447975068866</v>
+        <v>12.91447975068888</v>
       </c>
       <c r="L4" t="n">
-        <v>398.1307590522002</v>
+        <v>398.1307590522001</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.2420339516669</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="K4" t="n">
-        <v>12.91447975068854</v>
+        <v>12.91447975068888</v>
       </c>
       <c r="L4" t="n">
-        <v>398.1307590522003</v>
+        <v>398.1307590522001</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.09251611130367678</v>
+        <v>0.09251611130367583</v>
       </c>
       <c r="H2" t="n">
-        <v>0.94748062488878</v>
+        <v>0.9474806248887704</v>
       </c>
       <c r="I2" t="n">
-        <v>3.566727381035002</v>
+        <v>3.566727381034966</v>
       </c>
       <c r="J2" t="n">
-        <v>7.852189301760444</v>
+        <v>7.852189301760364</v>
       </c>
       <c r="K2" t="n">
-        <v>11.76839629324508</v>
+        <v>11.76839629324496</v>
       </c>
       <c r="L2" t="n">
-        <v>14.59973623455499</v>
+        <v>14.59973623455484</v>
       </c>
       <c r="M2" t="n">
-        <v>16.24501962895175</v>
+        <v>16.24501962895158</v>
       </c>
       <c r="N2" t="n">
-        <v>16.50788103019332</v>
+        <v>16.50788103019315</v>
       </c>
       <c r="O2" t="n">
-        <v>15.58792394841738</v>
+        <v>15.58792394841722</v>
       </c>
       <c r="P2" t="n">
-        <v>13.30393245060786</v>
+        <v>13.30393245060773</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544932</v>
+        <v>9.990699214544831</v>
       </c>
       <c r="R2" t="n">
-        <v>5.811515176679592</v>
+        <v>5.811515176679532</v>
       </c>
       <c r="S2" t="n">
-        <v>2.108210886332537</v>
+        <v>2.108210886332515</v>
       </c>
       <c r="T2" t="n">
-        <v>0.4049892772318453</v>
+        <v>0.4049892772318412</v>
       </c>
       <c r="U2" t="n">
-        <v>0.00740128890429414</v>
+        <v>0.007401288904294065</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04950048351498144</v>
+        <v>0.04950048351498094</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4780704592104787</v>
+        <v>0.4780704592104738</v>
       </c>
       <c r="I3" t="n">
-        <v>1.704292963125458</v>
+        <v>1.70429296312544</v>
       </c>
       <c r="J3" t="n">
-        <v>4.676710155246559</v>
+        <v>4.676710155246511</v>
       </c>
       <c r="K3" t="n">
-        <v>7.993242550750314</v>
+        <v>7.993242550750233</v>
       </c>
       <c r="L3" t="n">
-        <v>10.74790103688226</v>
+        <v>10.74790103688215</v>
       </c>
       <c r="M3" t="n">
-        <v>12.54229356430034</v>
+        <v>12.54229356430021</v>
       </c>
       <c r="N3" t="n">
-        <v>12.87425075418809</v>
+        <v>12.87425075418796</v>
       </c>
       <c r="O3" t="n">
-        <v>11.77742425104034</v>
+        <v>11.77742425104022</v>
       </c>
       <c r="P3" t="n">
-        <v>9.452421277523079</v>
+        <v>9.452421277522983</v>
       </c>
       <c r="Q3" t="n">
-        <v>6.318693299210613</v>
+        <v>6.318693299210549</v>
       </c>
       <c r="R3" t="n">
-        <v>3.073372125605603</v>
+        <v>3.073372125605572</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9194497705523959</v>
+        <v>0.9194497705523865</v>
       </c>
       <c r="T3" t="n">
-        <v>0.1995216857467891</v>
+        <v>0.1995216857467871</v>
       </c>
       <c r="U3" t="n">
-        <v>0.00325661075756457</v>
+        <v>0.003256610757564536</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.04149954254994848</v>
+        <v>0.04149954254994806</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3689686601259058</v>
+        <v>0.3689686601259021</v>
       </c>
       <c r="I4" t="n">
-        <v>1.248004425047542</v>
+        <v>1.248004425047529</v>
       </c>
       <c r="J4" t="n">
-        <v>2.934017658281358</v>
+        <v>2.934017658281328</v>
       </c>
       <c r="K4" t="n">
-        <v>4.821492307166741</v>
+        <v>4.821492307166691</v>
       </c>
       <c r="L4" t="n">
-        <v>6.169850171471433</v>
+        <v>6.16985017147137</v>
       </c>
       <c r="M4" t="n">
-        <v>6.505241928988742</v>
+        <v>6.505241928988675</v>
       </c>
       <c r="N4" t="n">
-        <v>6.35056181584803</v>
+        <v>6.350561815847965</v>
       </c>
       <c r="O4" t="n">
-        <v>5.865771705150903</v>
+        <v>5.865771705150842</v>
       </c>
       <c r="P4" t="n">
-        <v>5.019181037131949</v>
+        <v>5.019181037131898</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.475020785705232</v>
+        <v>3.475020785705196</v>
       </c>
       <c r="R4" t="n">
-        <v>1.865970340473138</v>
+        <v>1.865970340473119</v>
       </c>
       <c r="S4" t="n">
-        <v>0.723223846075011</v>
+        <v>0.7232238460750037</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1773162272588708</v>
+        <v>0.1773162272588689</v>
       </c>
       <c r="U4" t="n">
-        <v>0.002263611411815374</v>
+        <v>0.002263611411815351</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.140788987815579</v>
+        <v>0.1407889878155791</v>
       </c>
       <c r="H5" t="n">
-        <v>1.441855221466299</v>
+        <v>1.4418552214663</v>
       </c>
       <c r="I5" t="n">
-        <v>5.427767452760113</v>
+        <v>5.42776745276012</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461251</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
-        <v>17.90888720884597</v>
+        <v>17.90888720884599</v>
       </c>
       <c r="L5" t="n">
-        <v>22.217558194707</v>
+        <v>22.21755819470702</v>
       </c>
       <c r="M5" t="n">
-        <v>24.7213143567723</v>
+        <v>24.72131435677233</v>
       </c>
       <c r="N5" t="n">
-        <v>25.12133106840331</v>
+        <v>25.12133106840334</v>
       </c>
       <c r="O5" t="n">
-        <v>23.72136057081215</v>
+        <v>23.72136057081218</v>
       </c>
       <c r="P5" t="n">
-        <v>20.24563243411504</v>
+        <v>20.24563243411507</v>
       </c>
       <c r="Q5" t="n">
-        <v>15.20362680796961</v>
+        <v>15.20362680796963</v>
       </c>
       <c r="R5" t="n">
-        <v>8.84383625587037</v>
+        <v>8.84383625587038</v>
       </c>
       <c r="S5" t="n">
-        <v>3.208229059847509</v>
+        <v>3.208229059847513</v>
       </c>
       <c r="T5" t="n">
-        <v>0.6163037941626972</v>
+        <v>0.616303794162698</v>
       </c>
       <c r="U5" t="n">
-        <v>0.01126311902524632</v>
+        <v>0.01126311902524633</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0753287494713261</v>
+        <v>0.0753287494713262</v>
       </c>
       <c r="H6" t="n">
-        <v>0.727517133052018</v>
+        <v>0.7275171330520189</v>
       </c>
       <c r="I6" t="n">
-        <v>2.593555628727676</v>
+        <v>2.593555628727679</v>
       </c>
       <c r="J6" t="n">
-        <v>7.116914878779982</v>
+        <v>7.116914878779991</v>
       </c>
       <c r="K6" t="n">
-        <v>12.16394109335883</v>
+        <v>12.16394109335885</v>
       </c>
       <c r="L6" t="n">
-        <v>16.35591992358772</v>
+        <v>16.35591992358773</v>
       </c>
       <c r="M6" t="n">
-        <v>19.08658709192328</v>
+        <v>19.08658709192331</v>
       </c>
       <c r="N6" t="n">
-        <v>19.59175225833406</v>
+        <v>19.59175225833409</v>
       </c>
       <c r="O6" t="n">
-        <v>17.92262575689047</v>
+        <v>17.92262575689049</v>
       </c>
       <c r="P6" t="n">
-        <v>14.38448725650261</v>
+        <v>14.38448725650263</v>
       </c>
       <c r="Q6" t="n">
-        <v>9.615648792164365</v>
+        <v>9.615648792164377</v>
       </c>
       <c r="R6" t="n">
-        <v>4.676990252263565</v>
+        <v>4.676990252263571</v>
       </c>
       <c r="S6" t="n">
-        <v>1.399198482504675</v>
+        <v>1.399198482504676</v>
       </c>
       <c r="T6" t="n">
-        <v>0.3036277226497748</v>
+        <v>0.3036277226497752</v>
       </c>
       <c r="U6" t="n">
-        <v>0.004955838781008299</v>
+        <v>0.004955838781008305</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.06315309310006199</v>
+        <v>0.06315309310006208</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5614884095623698</v>
+        <v>0.5614884095623704</v>
       </c>
       <c r="I7" t="n">
-        <v>1.89918574522732</v>
+        <v>1.899185745227322</v>
       </c>
       <c r="J7" t="n">
-        <v>4.464923682174383</v>
+        <v>4.464923682174389</v>
       </c>
       <c r="K7" t="n">
-        <v>7.337241180170838</v>
+        <v>7.337241180170847</v>
       </c>
       <c r="L7" t="n">
-        <v>9.389142586894673</v>
+        <v>9.389142586894685</v>
       </c>
       <c r="M7" t="n">
-        <v>9.899534402948808</v>
+        <v>9.89953440294882</v>
       </c>
       <c r="N7" t="n">
-        <v>9.66414560139404</v>
+        <v>9.664145601394052</v>
       </c>
       <c r="O7" t="n">
-        <v>8.926402650179675</v>
+        <v>8.926402650179687</v>
       </c>
       <c r="P7" t="n">
-        <v>7.638079550938405</v>
+        <v>7.638079550938414</v>
       </c>
       <c r="Q7" t="n">
-        <v>5.28821036858792</v>
+        <v>5.288210368587926</v>
       </c>
       <c r="R7" t="n">
-        <v>2.83959271339006</v>
+        <v>2.839592713390063</v>
       </c>
       <c r="S7" t="n">
-        <v>1.100586177025626</v>
+        <v>1.100586177025627</v>
       </c>
       <c r="T7" t="n">
-        <v>0.2698359432457194</v>
+        <v>0.2698359432457197</v>
       </c>
       <c r="U7" t="n">
-        <v>0.003444714169094295</v>
+        <v>0.003444714169094299</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31519,43 +31519,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,25 +31695,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31756,19 +31756,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L11" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N11" t="n">
         <v>270.9617944338304</v>
@@ -31783,13 +31783,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31829,16 +31829,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I12" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31856,22 +31856,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q12" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S12" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,16 +31908,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I13" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K13" t="n">
         <v>79.14039391302239</v>
@@ -31932,16 +31932,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P13" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S13" t="n">
         <v>11.87105908695336</v>
@@ -31993,19 +31993,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L14" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N14" t="n">
         <v>270.9617944338304</v>
@@ -32020,13 +32020,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32066,16 +32066,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I15" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32093,22 +32093,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q15" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S15" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,16 +32145,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I16" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K16" t="n">
         <v>79.14039391302239</v>
@@ -32169,16 +32169,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P16" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S16" t="n">
         <v>11.87105908695336</v>
@@ -34699,22 +34699,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>115.8239578194293</v>
+        <v>115.8239578194292</v>
       </c>
       <c r="L2" t="n">
-        <v>196.4945358150182</v>
+        <v>196.494535815018</v>
       </c>
       <c r="M2" t="n">
-        <v>235.4123198945115</v>
+        <v>235.4123198945113</v>
       </c>
       <c r="N2" t="n">
-        <v>224.4417418455866</v>
+        <v>224.4417418455864</v>
       </c>
       <c r="O2" t="n">
-        <v>166.289893789476</v>
+        <v>166.2898937894759</v>
       </c>
       <c r="P2" t="n">
-        <v>103.869644866821</v>
+        <v>103.8696448668208</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>3.930118828988702</v>
+        <v>3.930118828988654</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>134.6170405889698</v>
       </c>
       <c r="L3" t="n">
-        <v>243.0338665604673</v>
+        <v>243.0338665604671</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>261.9696201058931</v>
+        <v>203.7667864659606</v>
       </c>
       <c r="O3" t="n">
-        <v>263.0434990833254</v>
+        <v>263.0434990833253</v>
       </c>
       <c r="P3" t="n">
-        <v>193.94078250313</v>
+        <v>193.9407825031299</v>
       </c>
       <c r="Q3" t="n">
-        <v>76.41420694903819</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,19 +34860,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>33.75987543178757</v>
+        <v>33.75987543178751</v>
       </c>
       <c r="M4" t="n">
-        <v>46.08911889082933</v>
+        <v>46.08911889082926</v>
       </c>
       <c r="N4" t="n">
-        <v>50.48273419507662</v>
+        <v>50.48273419507656</v>
       </c>
       <c r="O4" t="n">
-        <v>30.45089961919058</v>
+        <v>30.45089961919052</v>
       </c>
       <c r="P4" t="n">
-        <v>2.297740302025437</v>
+        <v>2.297740302025386</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34951,10 +34951,10 @@
         <v>174.4233304118708</v>
       </c>
       <c r="P5" t="n">
-        <v>110.8113448503281</v>
+        <v>110.8113448503282</v>
       </c>
       <c r="Q5" t="n">
-        <v>5.212927593424808</v>
+        <v>5.212927593424828</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>6.370323552522125</v>
+        <v>6.370323552522134</v>
       </c>
       <c r="K6" t="n">
-        <v>138.7877391315784</v>
+        <v>138.7877391315785</v>
       </c>
       <c r="L6" t="n">
         <v>248.6418854471727</v>
       </c>
       <c r="M6" t="n">
-        <v>151.8955562274026</v>
+        <v>231.6067186693945</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>269.1887005891755</v>
+        <v>269.1887005891756</v>
       </c>
       <c r="P6" t="n">
-        <v>198.8728484821095</v>
+        <v>198.8728484821096</v>
       </c>
       <c r="Q6" t="n">
-        <v>79.71116244199195</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35097,19 +35097,19 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>36.97916784721081</v>
+        <v>36.97916784721082</v>
       </c>
       <c r="M7" t="n">
         <v>49.4834113647894</v>
       </c>
       <c r="N7" t="n">
-        <v>53.79631798062263</v>
+        <v>53.79631798062265</v>
       </c>
       <c r="O7" t="n">
-        <v>33.51153056421935</v>
+        <v>33.51153056421936</v>
       </c>
       <c r="P7" t="n">
-        <v>4.916638815831893</v>
+        <v>4.916638815831902</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624592</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,19 +35407,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K11" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O11" t="n">
         <v>406.5635087530452</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K12" t="n">
         <v>257.8255762031298</v>
@@ -35495,19 +35495,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M12" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O12" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35644,19 +35644,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K14" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O14" t="n">
         <v>406.5635087530452</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K15" t="n">
         <v>257.8255762031298</v>
@@ -35741,7 +35741,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
         <v>173.8110948137341</v>
@@ -35975,13 +35975,13 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O18" t="n">
-        <v>325.1459203262123</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
         <v>339.6412258735647</v>
       </c>
       <c r="Q18" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>257.8255762031298</v>
@@ -36212,10 +36212,10 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O21" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839191</v>
       </c>
       <c r="P21" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q21" t="n">
         <v>173.8110948137341</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L24" t="n">
         <v>408.7029475713857</v>
@@ -36455,7 +36455,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q24" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L27" t="n">
         <v>408.7029475713857</v>
@@ -36689,7 +36689,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q27" t="n">
         <v>173.8110948137341</v>
@@ -36908,10 +36908,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L30" t="n">
         <v>408.7029475713857</v>
@@ -36929,7 +36929,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q30" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L33" t="n">
         <v>408.7029475713857</v>
@@ -37166,7 +37166,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q33" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
@@ -37394,7 +37394,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245898</v>
@@ -37403,7 +37403,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q36" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37552,7 +37552,7 @@
         <v>485.8144648060966</v>
       </c>
       <c r="N38" t="n">
-        <v>478.8956552492232</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O38" t="n">
         <v>406.5635087530452</v>
@@ -37622,7 +37622,7 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K39" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L39" t="n">
         <v>408.7029475713857</v>
@@ -37640,7 +37640,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q39" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.9372285181302</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K41" t="n">
         <v>297.223041434342</v>
@@ -37856,19 +37856,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L42" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730084</v>
       </c>
       <c r="M42" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245898</v>
@@ -38035,7 +38035,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q44" t="n">
-        <v>153.9975062898681</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38114,7 +38114,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q45" t="n">
-        <v>130.3926104730622</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_18.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>850744.9595356922</v>
+        <v>888454.9608210449</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>284149.5140982516</v>
+        <v>335414.3901624708</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10241536.80043314</v>
+        <v>10905804.67830212</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8315080.36942397</v>
+        <v>7992412.720658096</v>
       </c>
     </row>
     <row r="11">
@@ -671,16 +673,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>263.2420339516666</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H2" t="n">
-        <v>263.2420339516666</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="I2" t="n">
-        <v>206.9091621893709</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.097100052852153</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -713,10 +715,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>20.85732126240478</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.2420339516666</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="3">
@@ -735,22 +737,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>125.6384340685011</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -783,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>47.50281385232032</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -835,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>51.96190712986733</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>90.42516245839144</v>
+        <v>22.0339917726843</v>
       </c>
       <c r="K4" t="n">
-        <v>17.44799951871616</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,10 +858,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -896,22 +898,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -938,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>8.395781178313161</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -947,13 +949,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>207.0150734853809</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>243.2386572690346</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>120.3721394168814</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -981,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1035,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>163.3657543017353</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1060,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>137.0815656650981</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1111,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>175.1311939478779</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1142,19 +1144,19 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>4.097100052852153</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1178,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="X8" t="n">
-        <v>31.63855909934253</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>227.7664834517757</v>
       </c>
     </row>
     <row r="9">
@@ -1218,19 +1220,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>136.5310119231965</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250796</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,22 +1259,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>156.5912426325231</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>196.8897623984489</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8879277888686</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>35.75491628773444</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -1306,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,16 +1335,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>82.68702246598919</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>77.14804664098575</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>200.5196897930034</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1367,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>213.9831447597786</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1385,10 +1387,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,16 +1417,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>57.40387281015133</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1433,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1467,7 +1469,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1531,25 +1533,25 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>17.36390763391859</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1570,19 +1572,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>54.47555601903363</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1604,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>159.4368283879286</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1622,10 +1624,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1667,13 +1669,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>21.21133664189227</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1783,10 +1785,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>9.275596830496628</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1807,19 +1809,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
-        <v>156.127162662147</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1841,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>163.8950372953901</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1859,7 +1861,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
         <v>151.9313162448613</v>
@@ -1889,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1901,16 +1903,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>86.53181234590755</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1971,7 +1973,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S18" t="n">
-        <v>156.5912426325226</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T18" t="n">
         <v>196.8897623984489</v>
@@ -1999,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>94.63926978364054</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2056,16 +2058,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>274.487665874544</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2087,19 +2089,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>252.7077160573369</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>186.8083113631356</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2138,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2178,7 +2180,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825084</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>55.04515004530766</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2254,13 +2256,13 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>116.8224079003185</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2281,16 +2283,16 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2302,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2321,16 +2323,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>354.3958624239611</v>
+        <v>323.9918595228957</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2363,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2378,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2445,7 +2447,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S24" t="n">
-        <v>156.591242632523</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T24" t="n">
         <v>196.8897623984489</v>
@@ -2485,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2524,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>10.46499054460243</v>
+        <v>190.271393580297</v>
       </c>
       <c r="T25" t="n">
         <v>225.0351054580843</v>
@@ -2533,10 +2535,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2555,25 +2557,25 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>64.17110004111969</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2605,13 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S26" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>206.8577434995332</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2618,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2691,7 +2693,7 @@
         <v>225.8879277888686</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>232.8005871494254</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
@@ -2716,13 +2718,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>77.15919157187223</v>
+        <v>148.3725158629814</v>
       </c>
       <c r="T28" t="n">
         <v>225.0351054580843</v>
@@ -2779,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2792,25 +2794,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>110.634010970313</v>
+        <v>57.44899573820136</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2837,22 +2839,22 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2937,7 +2939,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773045</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2953,25 +2955,25 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>15.1823972622756</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -3004,13 +3006,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>94.63926978364051</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3035,19 +3037,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>303.3634957127911</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3074,25 +3076,25 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>221.8199080766637</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3184,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>6.59601561836874</v>
+        <v>122.3623168480189</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3247,13 +3249,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3272,16 +3274,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>389.0396295043333</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3311,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3320,10 +3322,10 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3332,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>220.4684440007137</v>
       </c>
     </row>
     <row r="36">
@@ -3430,10 +3432,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>94.6556856926066</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3442,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3487,10 +3489,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>38.96575664273605</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3503,25 +3505,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3557,13 +3559,13 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>81.1220065286378</v>
       </c>
       <c r="V38" t="n">
-        <v>123.5492650282466</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3658,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>94.63926978363978</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3715,19 +3717,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>171.7498680634313</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3740,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>275.4805812731082</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3752,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>340.0237825764897</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3800,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3837,7 +3839,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3901,16 +3903,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>155.886038567534</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3949,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>225.0351054580843</v>
+        <v>205.0849044383765</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3958,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3983,16 +3985,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>323.9918595228957</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4022,25 +4024,25 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>198.5293387111958</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4074,7 +4076,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4147,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,13 +4188,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>164.1314710794254</v>
       </c>
       <c r="U46" t="n">
-        <v>100.5088970641053</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>765.9990901358872</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C2" t="n">
-        <v>765.9990901358872</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D2" t="n">
-        <v>765.9990901358872</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E2" t="n">
-        <v>765.9990901358872</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F2" t="n">
-        <v>765.9990901358872</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G2" t="n">
-        <v>500.0980457402644</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H2" t="n">
-        <v>234.1970013446415</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>25.19784761800419</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K2" t="n">
-        <v>135.7250809573682</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L2" t="n">
-        <v>330.2546714142361</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M2" t="n">
-        <v>563.3128681098024</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N2" t="n">
-        <v>785.5101925369329</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O2" t="n">
-        <v>950.137187388514</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P2" t="n">
-        <v>1052.968135806667</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>1052.968135806666</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>1052.968135806666</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>1052.968135806666</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>1052.968135806666</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>1031.90013453151</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V2" t="n">
-        <v>1031.90013453151</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W2" t="n">
-        <v>1031.90013453151</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X2" t="n">
-        <v>1031.90013453151</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y2" t="n">
-        <v>765.9990901358872</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.05936271613333</v>
+        <v>612.718391167419</v>
       </c>
       <c r="C3" t="n">
-        <v>21.05936271613333</v>
+        <v>612.718391167419</v>
       </c>
       <c r="D3" t="n">
-        <v>21.05936271613333</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="E3" t="n">
-        <v>21.05936271613333</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F3" t="n">
-        <v>21.05936271613333</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G3" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
-        <v>24.9501803568321</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>158.2210505399123</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>398.8245784347747</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M3" t="n">
-        <v>398.8245784347747</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N3" t="n">
-        <v>600.5536970360757</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O3" t="n">
-        <v>860.9667611285678</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P3" t="n">
-        <v>1052.968135806666</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
-        <v>1052.968135806666</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>1052.968135806666</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>1052.968135806666</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T3" t="n">
-        <v>1052.968135806666</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U3" t="n">
-        <v>1052.968135806666</v>
+        <v>612.718391167419</v>
       </c>
       <c r="V3" t="n">
-        <v>817.8160275749237</v>
+        <v>612.718391167419</v>
       </c>
       <c r="W3" t="n">
-        <v>563.5786708467222</v>
+        <v>612.718391167419</v>
       </c>
       <c r="X3" t="n">
-        <v>355.7271706411893</v>
+        <v>612.718391167419</v>
       </c>
       <c r="Y3" t="n">
-        <v>147.9668718762354</v>
+        <v>612.718391167419</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>182.5089274706535</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="C4" t="n">
-        <v>182.5089274706535</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="D4" t="n">
-        <v>182.5089274706535</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="E4" t="n">
-        <v>182.5089274706535</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="F4" t="n">
-        <v>182.5089274706535</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="G4" t="n">
-        <v>182.5089274706535</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="H4" t="n">
-        <v>182.5089274706535</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="I4" t="n">
-        <v>130.0221525919996</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="J4" t="n">
-        <v>38.68360465423046</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K4" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L4" t="n">
-        <v>54.48163939360296</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M4" t="n">
-        <v>100.1098670955239</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N4" t="n">
-        <v>150.0877739486497</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O4" t="n">
-        <v>180.2341645716483</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>182.5089274706535</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>182.5089274706535</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R4" t="n">
-        <v>182.5089274706535</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S4" t="n">
-        <v>182.5089274706535</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T4" t="n">
-        <v>182.5089274706535</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="U4" t="n">
-        <v>182.5089274706535</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="V4" t="n">
-        <v>182.5089274706535</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="W4" t="n">
-        <v>182.5089274706535</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="X4" t="n">
-        <v>182.5089274706535</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="Y4" t="n">
-        <v>182.5089274706535</v>
+        <v>64.03213664411894</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>579.9844679696339</v>
+        <v>760.6642075620503</v>
       </c>
       <c r="C5" t="n">
-        <v>301.0384945329112</v>
+        <v>760.6642075620503</v>
       </c>
       <c r="D5" t="n">
-        <v>22.09252109618844</v>
+        <v>760.6642075620503</v>
       </c>
       <c r="E5" t="n">
-        <v>22.09252109618844</v>
+        <v>513.6311445709973</v>
       </c>
       <c r="F5" t="n">
-        <v>22.09252109618844</v>
+        <v>513.6311445709973</v>
       </c>
       <c r="G5" t="n">
-        <v>22.09252109618844</v>
+        <v>266.5980815799443</v>
       </c>
       <c r="H5" t="n">
-        <v>22.09252109618844</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="I5" t="n">
-        <v>22.09252109618844</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="J5" t="n">
-        <v>22.09252109618846</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="K5" t="n">
-        <v>142.8373253438684</v>
+        <v>124.4399474973462</v>
       </c>
       <c r="L5" t="n">
-        <v>344.9085595412869</v>
+        <v>306.8231980260855</v>
       </c>
       <c r="M5" t="n">
-        <v>586.3582880173957</v>
+        <v>526.3662512024591</v>
       </c>
       <c r="N5" t="n">
-        <v>817.0829279823544</v>
+        <v>734.8297429586089</v>
       </c>
       <c r="O5" t="n">
-        <v>989.7620250901066</v>
+        <v>886.4882690646268</v>
       </c>
       <c r="P5" t="n">
-        <v>1099.465256491931</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="Q5" t="n">
-        <v>1104.626054809422</v>
+        <v>969.7703423957684</v>
       </c>
       <c r="R5" t="n">
-        <v>1104.626054809422</v>
+        <v>969.7703423957684</v>
       </c>
       <c r="S5" t="n">
-        <v>1104.626054809422</v>
+        <v>969.7703423957684</v>
       </c>
       <c r="T5" t="n">
-        <v>1104.626054809422</v>
+        <v>760.6642075620503</v>
       </c>
       <c r="U5" t="n">
-        <v>1104.626054809422</v>
+        <v>760.6642075620503</v>
       </c>
       <c r="V5" t="n">
-        <v>858.9304414063566</v>
+        <v>760.6642075620503</v>
       </c>
       <c r="W5" t="n">
-        <v>858.9304414063566</v>
+        <v>760.6642075620503</v>
       </c>
       <c r="X5" t="n">
-        <v>858.9304414063566</v>
+        <v>760.6642075620503</v>
       </c>
       <c r="Y5" t="n">
-        <v>579.9844679696339</v>
+        <v>760.6642075620503</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>355.783005382771</v>
+        <v>194.0180478700184</v>
       </c>
       <c r="C6" t="n">
-        <v>181.329976101644</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="D6" t="n">
-        <v>181.329976101644</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="E6" t="n">
-        <v>22.09252109618844</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="F6" t="n">
-        <v>22.09252109618844</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="G6" t="n">
-        <v>22.09252109618844</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="H6" t="n">
-        <v>22.09252109618844</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="I6" t="n">
-        <v>22.09252109618844</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="J6" t="n">
-        <v>28.39914141318535</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="K6" t="n">
-        <v>165.799003153448</v>
+        <v>146.1858617037014</v>
       </c>
       <c r="L6" t="n">
-        <v>411.954469746149</v>
+        <v>146.1858617037014</v>
       </c>
       <c r="M6" t="n">
-        <v>641.2451212288496</v>
+        <v>388.3029667412324</v>
       </c>
       <c r="N6" t="n">
-        <v>641.2451212288496</v>
+        <v>630.4200717787633</v>
       </c>
       <c r="O6" t="n">
-        <v>907.7419348121334</v>
+        <v>723.7203651970592</v>
       </c>
       <c r="P6" t="n">
-        <v>1104.626054809422</v>
+        <v>907.8577401332358</v>
       </c>
       <c r="Q6" t="n">
-        <v>1104.626054809422</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="R6" t="n">
-        <v>1104.626054809422</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="S6" t="n">
-        <v>1104.626054809422</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="T6" t="n">
-        <v>1104.626054809422</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="U6" t="n">
-        <v>1104.626054809422</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="V6" t="n">
-        <v>1104.626054809422</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="W6" t="n">
-        <v>939.6101413733256</v>
+        <v>731.2178664535166</v>
       </c>
       <c r="X6" t="n">
-        <v>731.7586411677928</v>
+        <v>523.3663662479838</v>
       </c>
       <c r="Y6" t="n">
-        <v>523.9983424028389</v>
+        <v>315.6060674830299</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>22.09252109618844</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="C7" t="n">
-        <v>22.09252109618844</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="D7" t="n">
-        <v>22.09252109618844</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="E7" t="n">
-        <v>22.09252109618844</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="F7" t="n">
-        <v>22.09252109618844</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="G7" t="n">
-        <v>22.09252109618844</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="H7" t="n">
-        <v>22.09252109618844</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="I7" t="n">
-        <v>22.09252109618844</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="J7" t="n">
-        <v>22.09252109618844</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="K7" t="n">
-        <v>22.09252109618844</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="L7" t="n">
-        <v>58.70189726492715</v>
+        <v>47.85425064936706</v>
       </c>
       <c r="M7" t="n">
-        <v>107.6904745160687</v>
+        <v>88.07040250863014</v>
       </c>
       <c r="N7" t="n">
-        <v>160.9488293168851</v>
+        <v>132.7649205860522</v>
       </c>
       <c r="O7" t="n">
-        <v>194.1252445754623</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="P7" t="n">
-        <v>198.9927170031359</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="Q7" t="n">
-        <v>198.9927170031359</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="R7" t="n">
-        <v>198.9927170031359</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="S7" t="n">
-        <v>198.9927170031359</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="T7" t="n">
-        <v>198.9927170031359</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="U7" t="n">
-        <v>198.9927170031359</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="V7" t="n">
-        <v>22.09252109618844</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="W7" t="n">
-        <v>22.09252109618844</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="X7" t="n">
-        <v>22.09252109618844</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="Y7" t="n">
-        <v>22.09252109618844</v>
+        <v>158.0312465334349</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1363.553390680693</v>
+        <v>25.19784761800419</v>
       </c>
       <c r="C8" t="n">
-        <v>1363.553390680693</v>
+        <v>25.19784761800419</v>
       </c>
       <c r="D8" t="n">
-        <v>1363.553390680693</v>
+        <v>25.19784761800419</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>25.19784761800419</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>25.19784761800419</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>25.19784761800419</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>25.19784761800419</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>25.19784761800419</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>135.7250809573682</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>330.2546714142361</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>563.3128681098024</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>785.5101925369329</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>950.137187388514</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>1052.968135806667</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="V8" t="n">
-        <v>2134.880026519315</v>
+        <v>787.0670914110435</v>
       </c>
       <c r="W8" t="n">
-        <v>1782.111371249201</v>
+        <v>521.1660470154206</v>
       </c>
       <c r="X8" t="n">
-        <v>1750.153230744814</v>
+        <v>255.2650026197978</v>
       </c>
       <c r="Y8" t="n">
-        <v>1750.153230744814</v>
+        <v>25.19784761800419</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>433.0249227577941</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>258.5718934766671</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747047</v>
+        <v>109.6374838154158</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692492</v>
+        <v>109.6374838154158</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>109.6374838154158</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>109.6374838154158</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>109.6374838154158</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>24.9501803568321</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>30.73231659501201</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>271.3358444898745</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>531.9454581020244</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>792.5550717141743</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="U9" t="n">
-        <v>2061.714576167582</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1016.852058748349</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>809.000558542816</v>
       </c>
       <c r="Y9" t="n">
-        <v>1156.713312237151</v>
+        <v>601.2402597778621</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>348.0202652891861</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="C10" t="n">
-        <v>348.0202652891861</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="D10" t="n">
-        <v>348.0202652891861</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="E10" t="n">
-        <v>348.0202652891861</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="F10" t="n">
-        <v>348.0202652891861</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="G10" t="n">
-        <v>348.0202652891861</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>54.48163939360296</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>100.1098670955239</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>150.0877739486497</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>180.2341645716483</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>98.98668255551287</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942401</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="S10" t="n">
-        <v>550.5654064942401</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="T10" t="n">
-        <v>348.0202652891861</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="U10" t="n">
-        <v>348.0202652891861</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="V10" t="n">
-        <v>348.0202652891861</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="W10" t="n">
-        <v>348.0202652891861</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="X10" t="n">
-        <v>348.0202652891861</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="Y10" t="n">
-        <v>348.0202652891861</v>
+        <v>21.05936271613333</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>934.637173372437</v>
+        <v>750.1002187247734</v>
       </c>
       <c r="C11" t="n">
-        <v>565.6746564320254</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="D11" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="E11" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F11" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G11" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H11" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I11" t="n">
         <v>53.94298182036445</v>
@@ -5042,10 +5044,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
@@ -5063,28 +5065,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S11" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T11" t="n">
-        <v>2478.514423990285</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U11" t="n">
-        <v>2224.752638628377</v>
+        <v>2584.136691639472</v>
       </c>
       <c r="V11" t="n">
-        <v>1893.689751284806</v>
+        <v>2253.073804295901</v>
       </c>
       <c r="W11" t="n">
-        <v>1540.921096014692</v>
+        <v>1900.305149025787</v>
       </c>
       <c r="X11" t="n">
-        <v>1540.921096014692</v>
+        <v>1526.839390764707</v>
       </c>
       <c r="Y11" t="n">
-        <v>1150.78176403888</v>
+        <v>1136.700058788895</v>
       </c>
     </row>
     <row r="12">
@@ -5094,67 +5096,67 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I12" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K12" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L12" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M12" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N12" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O12" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P12" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q12" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U12" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W12" t="n">
         <v>1572.325111207638</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C13" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D13" t="n">
-        <v>710.5896835661124</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E13" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F13" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G13" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H13" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I13" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J13" t="n">
         <v>53.94298182036445</v>
@@ -5218,31 +5220,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S13" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T13" t="n">
-        <v>728.1289842064342</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="U13" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V13" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W13" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X13" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y13" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="14">
@@ -5252,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1251.855211652197</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="C14" t="n">
-        <v>882.8926947117852</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D14" t="n">
-        <v>882.8926947117852</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E14" t="n">
-        <v>882.8926947117852</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F14" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G14" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I14" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K14" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O14" t="n">
         <v>2238.843319642689</v>
@@ -5306,22 +5308,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T14" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U14" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V14" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W14" t="n">
-        <v>2402.06014195321</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X14" t="n">
-        <v>2028.59438369213</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y14" t="n">
-        <v>1638.455051716319</v>
+        <v>2268.654643287636</v>
       </c>
     </row>
     <row r="15">
@@ -5346,10 +5348,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H15" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
         <v>53.94298182036445</v>
@@ -5379,7 +5381,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S15" t="n">
         <v>2488.762748073963</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="C16" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="D16" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="E16" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="F16" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="G16" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="H16" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="I16" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J16" t="n">
         <v>53.94298182036445</v>
@@ -5455,31 +5457,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S16" t="n">
-        <v>570.4247794971948</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T16" t="n">
-        <v>343.1165921657965</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="U16" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="V16" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="W16" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="X16" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="Y16" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810045</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1791.109440255352</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="C17" t="n">
-        <v>1422.14692331494</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D17" t="n">
-        <v>1422.14692331494</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E17" t="n">
-        <v>1036.358670716696</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F17" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G17" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H17" t="n">
         <v>207.4089578252748</v>
@@ -5513,13 +5515,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
@@ -5549,16 +5551,16 @@
         <v>2642.120401548716</v>
       </c>
       <c r="V17" t="n">
-        <v>2554.714530492243</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W17" t="n">
-        <v>2554.714530492243</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X17" t="n">
-        <v>2181.248772231163</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="Y17" t="n">
-        <v>1791.109440255352</v>
+        <v>2642.120401548716</v>
       </c>
     </row>
     <row r="18">
@@ -5568,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C18" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H18" t="n">
         <v>115.9856282673424</v>
@@ -5607,10 +5609,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O18" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P18" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018222</v>
@@ -5619,22 +5621,22 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W18" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X18" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y18" t="n">
         <v>1156.713312237151</v>
@@ -5647,7 +5649,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.94298182036445</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C19" t="n">
         <v>53.94298182036445</v>
@@ -5677,46 +5679,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L19" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M19" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N19" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O19" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U19" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V19" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W19" t="n">
-        <v>149.5382038240418</v>
+        <v>450.8687156462887</v>
       </c>
       <c r="X19" t="n">
-        <v>149.5382038240418</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="Y19" t="n">
-        <v>149.5382038240418</v>
+        <v>222.8791647482714</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1865.381229508783</v>
+        <v>1534.318342165212</v>
       </c>
       <c r="C20" t="n">
-        <v>1496.418712568371</v>
+        <v>1165.3558252248</v>
       </c>
       <c r="D20" t="n">
-        <v>1138.15301396162</v>
+        <v>807.0901266180497</v>
       </c>
       <c r="E20" t="n">
-        <v>882.8926947117852</v>
+        <v>807.0901266180497</v>
       </c>
       <c r="F20" t="n">
-        <v>471.9067899221776</v>
+        <v>396.1042218284421</v>
       </c>
       <c r="G20" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I20" t="n">
         <v>53.94298182036446</v>
@@ -5786,16 +5788,16 @@
         <v>2642.120401548716</v>
       </c>
       <c r="V20" t="n">
-        <v>2642.120401548716</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W20" t="n">
-        <v>2642.120401548716</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="X20" t="n">
-        <v>2642.120401548716</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="Y20" t="n">
-        <v>2251.981069572904</v>
+        <v>1920.918182229334</v>
       </c>
     </row>
     <row r="21">
@@ -5805,43 +5807,43 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C21" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I21" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J21" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K21" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L21" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M21" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N21" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O21" t="n">
         <v>2188.831293537797</v>
@@ -5874,7 +5876,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y21" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="22">
@@ -5884,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>256.4340909802017</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="C22" t="n">
-        <v>200.8329293182748</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="D22" t="n">
-        <v>200.8329293182748</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="E22" t="n">
-        <v>200.8329293182748</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="F22" t="n">
-        <v>53.94298182036446</v>
+        <v>353.9308493771258</v>
       </c>
       <c r="G22" t="n">
-        <v>53.94298182036446</v>
+        <v>353.9308493771258</v>
       </c>
       <c r="H22" t="n">
-        <v>53.94298182036446</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I22" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J22" t="n">
         <v>53.94298182036446</v>
@@ -5929,31 +5931,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q22" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R22" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S22" t="n">
-        <v>484.4236418782191</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T22" t="n">
-        <v>484.4236418782191</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U22" t="n">
-        <v>484.4236418782191</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V22" t="n">
-        <v>484.4236418782191</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="W22" t="n">
-        <v>484.4236418782191</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="X22" t="n">
-        <v>256.4340909802017</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="Y22" t="n">
-        <v>256.4340909802017</v>
+        <v>500.8207968750362</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1139.146815977588</v>
+        <v>1546.94416071721</v>
       </c>
       <c r="C23" t="n">
-        <v>770.1842990371767</v>
+        <v>1177.981643776798</v>
       </c>
       <c r="D23" t="n">
-        <v>411.9186004304262</v>
+        <v>1177.981643776798</v>
       </c>
       <c r="E23" t="n">
-        <v>411.9186004304262</v>
+        <v>792.1933911785536</v>
       </c>
       <c r="F23" t="n">
-        <v>411.9186004304262</v>
+        <v>381.2074863889461</v>
       </c>
       <c r="G23" t="n">
         <v>53.94298182036446</v>
@@ -5987,13 +5989,13 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K23" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6011,28 +6013,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W23" t="n">
-        <v>2289.351746278602</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X23" t="n">
-        <v>1915.885988017522</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y23" t="n">
-        <v>1525.74665604171</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="24">
@@ -6066,25 +6068,25 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K24" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L24" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M24" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N24" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O24" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018223</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2169.853036130064</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C25" t="n">
-        <v>2169.853036130064</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D25" t="n">
-        <v>2169.853036130064</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E25" t="n">
-        <v>2169.853036130064</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K25" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>2206.83913925958</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M25" t="n">
-        <v>2351.73700797761</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N25" t="n">
-        <v>2498.624145662039</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O25" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P25" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q25" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S25" t="n">
-        <v>2686.578393498422</v>
+        <v>535.9356573576496</v>
       </c>
       <c r="T25" t="n">
-        <v>2459.270206167024</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="U25" t="n">
-        <v>2459.270206167024</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V25" t="n">
-        <v>2459.270206167024</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="W25" t="n">
-        <v>2169.853036130064</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X25" t="n">
-        <v>2169.853036130064</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y25" t="n">
-        <v>2169.853036130064</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1190.010945960184</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="C26" t="n">
-        <v>1125.191652989356</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D26" t="n">
-        <v>766.9259543826058</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E26" t="n">
-        <v>381.1377017843616</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F26" t="n">
-        <v>381.1377017843616</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G26" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I26" t="n">
         <v>53.94298182036446</v>
@@ -6230,13 +6232,13 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
@@ -6251,25 +6253,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S26" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T26" t="n">
-        <v>2247.308246834949</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U26" t="n">
-        <v>2247.308246834949</v>
+        <v>2433.173185892622</v>
       </c>
       <c r="V26" t="n">
-        <v>1916.245359491378</v>
+        <v>2102.110298549051</v>
       </c>
       <c r="W26" t="n">
-        <v>1563.476704221264</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="X26" t="n">
-        <v>1190.010945960184</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="Y26" t="n">
-        <v>1190.010945960184</v>
+        <v>1749.341643278937</v>
       </c>
     </row>
     <row r="27">
@@ -6306,22 +6308,22 @@
         <v>53.94298182036446</v>
       </c>
       <c r="K27" t="n">
-        <v>266.2060027641992</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L27" t="n">
-        <v>670.8219208598711</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M27" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N27" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O27" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018223</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2022.963088632153</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="C28" t="n">
-        <v>2022.963088632153</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="D28" t="n">
-        <v>2022.963088632153</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E28" t="n">
-        <v>2022.963088632153</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K28" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L28" t="n">
-        <v>2206.83913925958</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M28" t="n">
-        <v>2351.73700797761</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N28" t="n">
-        <v>2498.624145662039</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O28" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P28" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q28" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R28" t="n">
-        <v>2549.002432452407</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S28" t="n">
-        <v>2471.063855107082</v>
+        <v>578.2577560620088</v>
       </c>
       <c r="T28" t="n">
-        <v>2243.755667775683</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="U28" t="n">
-        <v>2243.755667775683</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="V28" t="n">
-        <v>2243.755667775683</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="W28" t="n">
-        <v>2243.755667775683</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="X28" t="n">
-        <v>2243.755667775683</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="Y28" t="n">
-        <v>2022.963088632153</v>
+        <v>350.9495687306105</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1426.303625751931</v>
+        <v>940.9219833362311</v>
       </c>
       <c r="C29" t="n">
-        <v>1057.341108811519</v>
+        <v>940.9219833362311</v>
       </c>
       <c r="D29" t="n">
-        <v>1057.341108811519</v>
+        <v>940.9219833362311</v>
       </c>
       <c r="E29" t="n">
-        <v>945.5895825788796</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F29" t="n">
-        <v>534.603677789272</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G29" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H29" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I29" t="n">
         <v>53.94298182036446</v>
@@ -6473,7 +6475,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
@@ -6485,28 +6487,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R29" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S29" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T29" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U29" t="n">
-        <v>2520.971603332393</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V29" t="n">
-        <v>2189.908715988822</v>
+        <v>2057.295728843237</v>
       </c>
       <c r="W29" t="n">
-        <v>2189.908715988822</v>
+        <v>1704.527073573123</v>
       </c>
       <c r="X29" t="n">
-        <v>1816.442957727742</v>
+        <v>1331.061315312043</v>
       </c>
       <c r="Y29" t="n">
-        <v>1426.303625751931</v>
+        <v>940.9219833362311</v>
       </c>
     </row>
     <row r="30">
@@ -6543,13 +6545,13 @@
         <v>53.94298182036446</v>
       </c>
       <c r="K30" t="n">
-        <v>266.2060027641992</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L30" t="n">
-        <v>670.8219208598711</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M30" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N30" t="n">
         <v>1748.695370517453</v>
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C31" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D31" t="n">
-        <v>578.0123447940987</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E31" t="n">
-        <v>578.0123447940987</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F31" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G31" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H31" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I31" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J31" t="n">
         <v>53.94298182036446</v>
@@ -6652,19 +6654,19 @@
         <v>728.1289842064344</v>
       </c>
       <c r="U31" t="n">
-        <v>728.1289842064344</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V31" t="n">
-        <v>728.1289842064344</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W31" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X31" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y31" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1261.831893336434</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="C32" t="n">
-        <v>892.8693763960225</v>
+        <v>1933.374419364044</v>
       </c>
       <c r="D32" t="n">
-        <v>534.603677789272</v>
+        <v>1575.108720757293</v>
       </c>
       <c r="E32" t="n">
-        <v>534.603677789272</v>
+        <v>1189.320468159049</v>
       </c>
       <c r="F32" t="n">
-        <v>534.603677789272</v>
+        <v>778.3345633694414</v>
       </c>
       <c r="G32" t="n">
-        <v>534.603677789272</v>
+        <v>360.3707552676283</v>
       </c>
       <c r="H32" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K32" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P32" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q32" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S32" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T32" t="n">
-        <v>2423.485734520779</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U32" t="n">
-        <v>2169.72394915887</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V32" t="n">
-        <v>1838.661061815299</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="W32" t="n">
-        <v>1485.892406545185</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="X32" t="n">
-        <v>1261.831893336434</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="Y32" t="n">
-        <v>1261.831893336434</v>
+        <v>2302.336936304455</v>
       </c>
     </row>
     <row r="33">
@@ -6753,40 +6755,40 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K33" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L33" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M33" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N33" t="n">
         <v>1748.695370517453</v>
@@ -6798,22 +6800,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W33" t="n">
         <v>1572.325111207638</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>210.7222632714565</v>
+        <v>2146.561388478637</v>
       </c>
       <c r="C34" t="n">
-        <v>204.0596212327002</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D34" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E34" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F34" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G34" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H34" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I34" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K34" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L34" t="n">
-        <v>237.8190324477911</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M34" t="n">
-        <v>382.716901165821</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N34" t="n">
-        <v>529.6040388502502</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O34" t="n">
-        <v>649.2617893594903</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P34" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q34" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R34" t="n">
-        <v>728.1289842064344</v>
+        <v>2549.002432452407</v>
       </c>
       <c r="S34" t="n">
-        <v>728.1289842064344</v>
+        <v>2549.002432452407</v>
       </c>
       <c r="T34" t="n">
-        <v>728.1289842064344</v>
+        <v>2549.002432452407</v>
       </c>
       <c r="U34" t="n">
-        <v>728.1289842064344</v>
+        <v>2549.002432452407</v>
       </c>
       <c r="V34" t="n">
-        <v>728.1289842064344</v>
+        <v>2549.002432452407</v>
       </c>
       <c r="W34" t="n">
-        <v>438.7118141694738</v>
+        <v>2549.002432452407</v>
       </c>
       <c r="X34" t="n">
-        <v>210.7222632714565</v>
+        <v>2549.002432452407</v>
       </c>
       <c r="Y34" t="n">
-        <v>210.7222632714565</v>
+        <v>2328.209853308877</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1970.914677487028</v>
+        <v>1108.365917331524</v>
       </c>
       <c r="C35" t="n">
-        <v>1601.952160546617</v>
+        <v>739.4034003911122</v>
       </c>
       <c r="D35" t="n">
-        <v>1243.686461939866</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="E35" t="n">
-        <v>857.8982093416219</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F35" t="n">
-        <v>446.9123045520143</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533138</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P35" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q35" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S35" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T35" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U35" t="n">
-        <v>2697.149091018222</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V35" t="n">
-        <v>2697.149091018222</v>
+        <v>2057.295728843237</v>
       </c>
       <c r="W35" t="n">
-        <v>2344.380435748108</v>
+        <v>1704.527073573123</v>
       </c>
       <c r="X35" t="n">
-        <v>1970.914677487028</v>
+        <v>1331.061315312043</v>
       </c>
       <c r="Y35" t="n">
-        <v>1970.914677487028</v>
+        <v>1108.365917331524</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C36" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J36" t="n">
         <v>129.2001442204943</v>
@@ -7026,37 +7028,37 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N36" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O36" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P36" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q36" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W36" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X36" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y36" t="n">
         <v>1156.713312237151</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2476.141276043805</v>
+        <v>2287.511075289966</v>
       </c>
       <c r="C37" t="n">
-        <v>2307.205093115898</v>
+        <v>2118.574892362059</v>
       </c>
       <c r="D37" t="n">
-        <v>2307.205093115898</v>
+        <v>2118.574892362059</v>
       </c>
       <c r="E37" t="n">
-        <v>2159.291999533505</v>
+        <v>2118.574892362059</v>
       </c>
       <c r="F37" t="n">
-        <v>2159.291999533505</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G37" t="n">
-        <v>2159.291999533505</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H37" t="n">
-        <v>2159.291999533505</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I37" t="n">
         <v>2022.963088632153</v>
@@ -7099,46 +7101,46 @@
         <v>2079.265281698421</v>
       </c>
       <c r="L37" t="n">
-        <v>2206.839139259579</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M37" t="n">
-        <v>2351.737007977609</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N37" t="n">
-        <v>2498.624145662038</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O37" t="n">
-        <v>2618.281896171278</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P37" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q37" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S37" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T37" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U37" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V37" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W37" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X37" t="n">
-        <v>2697.149091018222</v>
+        <v>2469.159540120206</v>
       </c>
       <c r="Y37" t="n">
-        <v>2657.789740874045</v>
+        <v>2469.159540120206</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1422.14692331494</v>
+        <v>781.1711973675267</v>
       </c>
       <c r="C38" t="n">
-        <v>1422.14692331494</v>
+        <v>412.208680427115</v>
       </c>
       <c r="D38" t="n">
-        <v>1422.14692331494</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E38" t="n">
-        <v>1036.358670716696</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F38" t="n">
-        <v>625.3727659270879</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G38" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H38" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J38" t="n">
         <v>169.7108380533142</v>
@@ -7205,19 +7207,19 @@
         <v>2697.149091018223</v>
       </c>
       <c r="U38" t="n">
-        <v>2697.149091018222</v>
+        <v>2615.207670282225</v>
       </c>
       <c r="V38" t="n">
-        <v>2572.351853615953</v>
+        <v>2284.144782938654</v>
       </c>
       <c r="W38" t="n">
-        <v>2572.351853615953</v>
+        <v>1931.37612766854</v>
       </c>
       <c r="X38" t="n">
-        <v>2198.886095354873</v>
+        <v>1557.91036940746</v>
       </c>
       <c r="Y38" t="n">
-        <v>1808.746763379062</v>
+        <v>1167.771037431648</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7250,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J39" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K39" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L39" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M39" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N39" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O39" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018223</v>
@@ -7306,10 +7308,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2342.015910972395</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C40" t="n">
-        <v>2173.079728044489</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D40" t="n">
         <v>2022.963088632153</v>
@@ -7336,46 +7338,46 @@
         <v>2079.265281698421</v>
       </c>
       <c r="L40" t="n">
-        <v>2206.839139259579</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M40" t="n">
-        <v>2351.737007977609</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N40" t="n">
-        <v>2498.624145662038</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O40" t="n">
-        <v>2618.281896171278</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P40" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q40" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S40" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T40" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U40" t="n">
-        <v>2697.149091018222</v>
+        <v>2407.975480672791</v>
       </c>
       <c r="V40" t="n">
-        <v>2697.149091018222</v>
+        <v>2407.975480672791</v>
       </c>
       <c r="W40" t="n">
-        <v>2697.149091018222</v>
+        <v>2118.55831063583</v>
       </c>
       <c r="X40" t="n">
-        <v>2697.149091018222</v>
+        <v>2118.55831063583</v>
       </c>
       <c r="Y40" t="n">
-        <v>2523.664375802635</v>
+        <v>2118.55831063583</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1546.94416071721</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="C41" t="n">
-        <v>1268.68094731003</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="D41" t="n">
-        <v>1268.68094731003</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="E41" t="n">
-        <v>882.8926947117852</v>
+        <v>808.3872528488505</v>
       </c>
       <c r="F41" t="n">
-        <v>471.9067899221776</v>
+        <v>397.4013480592429</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P41" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W41" t="n">
-        <v>2697.149091018223</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X41" t="n">
-        <v>2323.683332757143</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y41" t="n">
-        <v>1933.544000781331</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="42">
@@ -7464,37 +7466,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K42" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L42" t="n">
-        <v>670.8219208598711</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M42" t="n">
         <v>1194.968834417902</v>
@@ -7509,31 +7511,31 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q42" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W42" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X42" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y42" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>211.4036268380756</v>
+        <v>520.9725150767609</v>
       </c>
       <c r="C43" t="n">
-        <v>211.4036268380756</v>
+        <v>520.9725150767609</v>
       </c>
       <c r="D43" t="n">
-        <v>211.4036268380756</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="E43" t="n">
-        <v>211.4036268380756</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F43" t="n">
-        <v>211.4036268380756</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K43" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L43" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M43" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N43" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S43" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T43" t="n">
-        <v>500.8207968750362</v>
+        <v>520.9725150767609</v>
       </c>
       <c r="U43" t="n">
-        <v>500.8207968750362</v>
+        <v>520.9725150767609</v>
       </c>
       <c r="V43" t="n">
-        <v>500.8207968750362</v>
+        <v>520.9725150767609</v>
       </c>
       <c r="W43" t="n">
-        <v>211.4036268380756</v>
+        <v>520.9725150767609</v>
       </c>
       <c r="X43" t="n">
-        <v>211.4036268380756</v>
+        <v>520.9725150767609</v>
       </c>
       <c r="Y43" t="n">
-        <v>211.4036268380756</v>
+        <v>520.9725150767609</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1546.94416071721</v>
+        <v>1579.049931616194</v>
       </c>
       <c r="C44" t="n">
-        <v>1177.981643776798</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="D44" t="n">
-        <v>1177.981643776798</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E44" t="n">
-        <v>792.1933911785536</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F44" t="n">
-        <v>381.2074863889461</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036446</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H44" t="n">
         <v>53.94298182036446</v>
@@ -7670,28 +7672,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R44" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S44" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T44" t="n">
-        <v>2697.149091018223</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U44" t="n">
-        <v>2697.149091018223</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V44" t="n">
-        <v>2697.149091018223</v>
+        <v>1969.189263592006</v>
       </c>
       <c r="W44" t="n">
-        <v>2697.149091018223</v>
+        <v>1969.189263592006</v>
       </c>
       <c r="X44" t="n">
-        <v>2323.683332757143</v>
+        <v>1969.189263592006</v>
       </c>
       <c r="Y44" t="n">
-        <v>1933.544000781331</v>
+        <v>1579.049931616194</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H45" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
         <v>53.94298182036446</v>
@@ -7728,22 +7730,22 @@
         <v>53.94298182036446</v>
       </c>
       <c r="K45" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L45" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M45" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N45" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O45" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P45" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018223</v>
@@ -7770,7 +7772,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y45" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="46">
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2159.291999533505</v>
+        <v>2349.711261461291</v>
       </c>
       <c r="C46" t="n">
-        <v>2159.291999533505</v>
+        <v>2349.711261461291</v>
       </c>
       <c r="D46" t="n">
-        <v>2159.291999533505</v>
+        <v>2349.711261461291</v>
       </c>
       <c r="E46" t="n">
-        <v>2159.291999533505</v>
+        <v>2349.711261461291</v>
       </c>
       <c r="F46" t="n">
-        <v>2159.291999533505</v>
+        <v>2349.711261461291</v>
       </c>
       <c r="G46" t="n">
-        <v>2159.291999533505</v>
+        <v>2180.711461199623</v>
       </c>
       <c r="H46" t="n">
-        <v>2159.291999533505</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I46" t="n">
         <v>2022.963088632153</v>
@@ -7834,22 +7836,22 @@
         <v>2697.149091018223</v>
       </c>
       <c r="T46" t="n">
-        <v>2697.149091018223</v>
+        <v>2531.35972629153</v>
       </c>
       <c r="U46" t="n">
-        <v>2595.624952569632</v>
+        <v>2531.35972629153</v>
       </c>
       <c r="V46" t="n">
-        <v>2340.940464363745</v>
+        <v>2531.35972629153</v>
       </c>
       <c r="W46" t="n">
-        <v>2340.940464363745</v>
+        <v>2531.35972629153</v>
       </c>
       <c r="X46" t="n">
-        <v>2340.940464363745</v>
+        <v>2531.35972629153</v>
       </c>
       <c r="Y46" t="n">
-        <v>2340.940464363745</v>
+        <v>2531.35972629153</v>
       </c>
     </row>
   </sheetData>
@@ -8058,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>129.5917403577181</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>322.2342477951059</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>198.1125443848066</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>133.663080786811</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8298,22 +8300,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>136.8385818314783</v>
       </c>
       <c r="M6" t="n">
-        <v>354.6541654994895</v>
+        <v>384.6945110063436</v>
       </c>
       <c r="N6" t="n">
-        <v>111.7499598249992</v>
+        <v>373.8491954283778</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>234.9588137447432</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3661252938572</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>135.6887380783359</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>392.8337743093847</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>381.7094952808119</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>124.5219861368073</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747121</v>
+        <v>133.663080786811</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8775,7 +8777,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -8787,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9255,13 +9257,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9477,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9492,7 +9494,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>350.4438349360588</v>
+        <v>274.4264991783519</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9714,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>221.0467526719081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9735,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,7 +9956,7 @@
         <v>50.07369958270192</v>
       </c>
       <c r="K27" t="n">
-        <v>221.0467526719081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9972,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,7 +10193,7 @@
         <v>50.07369958270192</v>
       </c>
       <c r="K30" t="n">
-        <v>221.0467526719081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10200,7 +10202,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10425,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>221.0467526719081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10437,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720733</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10674,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10683,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>145.0294169142012</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10920,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11136,13 +11138,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L42" t="n">
-        <v>251.4045252050818</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
@@ -11373,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11394,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22559,16 +22561,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>151.9681874521648</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H2" t="n">
-        <v>75.28528753921177</v>
+        <v>127.189416472325</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22589,22 +22591,22 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>144.0576027644701</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>206.9118586999128</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>222.6908602868995</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>230.4809303565274</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -22613,7 +22615,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.995904704387</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -22623,31 +22625,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>40.89474958136628</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.2940166796957</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>111.757373777286</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>87.69233988828964</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22671,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>97.08446202703756</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>170.7637213332854</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>199.9652070090748</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9381254702172</v>
+        <v>178.4385682286545</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22717,16 +22719,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9494798159088</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>161.8582038473137</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>102.2405633723434</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>71.32518834398849</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22747,19 +22749,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.68702246598919</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>175.4274210366964</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>223.2933741908973</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>227.7682732010226</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3167657450791</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22784,28 +22786,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>89.11637806865207</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>78.52652791832747</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>137.3676377111194</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>415.1619485273195</v>
+        <v>170.7252358559294</v>
       </c>
       <c r="H5" t="n">
-        <v>338.0329468943008</v>
+        <v>94.7608136808341</v>
       </c>
       <c r="I5" t="n">
-        <v>205.0481221176458</v>
+        <v>209.9064962068211</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>10.69576364311372</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22829,19 +22831,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>141.0252816852793</v>
+        <v>148.9413660216818</v>
       </c>
       <c r="S5" t="n">
-        <v>205.8118405263978</v>
+        <v>208.6835142066282</v>
       </c>
       <c r="T5" t="n">
-        <v>222.4795457699687</v>
+        <v>16.01612347647844</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3343897888113</v>
+        <v>251.3444713639914</v>
       </c>
       <c r="V5" t="n">
-        <v>84.51360120110027</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -22850,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>110.0814249536981</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22860,7 +22862,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>46.16104423298596</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -22869,19 +22871,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.2681884137393</v>
+        <v>137.3356148920818</v>
       </c>
       <c r="H6" t="n">
-        <v>111.5079271034444</v>
+        <v>112.1591249337519</v>
       </c>
       <c r="I6" t="n">
-        <v>86.80307722268739</v>
+        <v>89.12455904281175</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22908,22 +22910,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>95.48084390037957</v>
+        <v>99.6672001609758</v>
       </c>
       <c r="S6" t="n">
-        <v>170.2839726213331</v>
+        <v>171.5363898835276</v>
       </c>
       <c r="T6" t="n">
-        <v>199.8611009721718</v>
+        <v>200.1328769967189</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9364262421938</v>
+        <v>225.9408621947163</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>88.32922885918427</v>
+        <v>7.132250799777211</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -22948,25 +22950,25 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>9.352396981471117</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9278262653587</v>
+        <v>167.9843543597988</v>
       </c>
       <c r="H7" t="n">
-        <v>161.6656840978772</v>
+        <v>162.1682702466266</v>
       </c>
       <c r="I7" t="n">
-        <v>153.551289182031</v>
+        <v>155.2512431493756</v>
       </c>
       <c r="J7" t="n">
-        <v>88.89425643449839</v>
+        <v>92.89079271141465</v>
       </c>
       <c r="K7" t="n">
-        <v>14.93225064571201</v>
+        <v>21.49978743611831</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22981,25 +22983,25 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>1.920177260816417</v>
       </c>
       <c r="Q7" t="n">
-        <v>80.87383288310646</v>
+        <v>85.60728995481479</v>
       </c>
       <c r="R7" t="n">
-        <v>174.4537986637794</v>
+        <v>176.9955073465141</v>
       </c>
       <c r="S7" t="n">
-        <v>222.9160118599466</v>
+        <v>223.9011423785076</v>
       </c>
       <c r="T7" t="n">
-        <v>227.6757534850358</v>
+        <v>227.9172826158254</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3155846423218</v>
+        <v>286.3186679929276</v>
       </c>
       <c r="V7" t="n">
-        <v>77.0064493759501</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -23018,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23030,16 +23032,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>415.2102214038314</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>338.5273214908784</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>206.9091621893709</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23066,28 +23068,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>144.0576027644701</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>222.6908602868995</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>64.51022451846831</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>85.99893476574641</v>
       </c>
       <c r="X8" t="n">
-        <v>338.0925415791265</v>
+        <v>106.4890667268024</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>158.4714552042779</v>
       </c>
     </row>
     <row r="9">
@@ -23106,16 +23108,16 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -23145,22 +23147,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>97.08446202703756</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>215.9400668731852</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -23191,19 +23193,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>167.9494798159088</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>161.8582038473137</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>154.2024705022108</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>17.44799951871616</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23224,16 +23226,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>98.2793743957106</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>223.2933741908973</v>
       </c>
       <c r="T10" t="n">
-        <v>24.51541566508084</v>
+        <v>227.7682732010226</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>286.3167657450791</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23255,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>168.750696903702</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23273,10 +23275,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,16 +23305,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>193.820294698138</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23321,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23419,25 +23421,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>131.2515653842938</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,19 +23460,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2818742419777</v>
+        <v>231.8063182229441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23492,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>205.836063383079</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23510,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,7 +23548,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
         <v>251.2241675082893</v>
@@ -23555,13 +23557,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>328.0296320755207</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23671,10 +23673,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923382</v>
+        <v>125.6900249618416</v>
       </c>
       <c r="J16" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,19 +23697,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>56.01837628787186</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23729,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>218.8388043680905</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23747,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23789,16 +23791,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>241.2204461242274</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23887,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>85.19271039829675</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23911,7 +23913,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
         <v>212.1455389500189</v>
@@ -23944,16 +23946,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>12.03533246204699</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23975,19 +23977,19 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>129.2226540149249</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>226.9758586576594</v>
       </c>
       <c r="H20" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24026,7 +24028,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24127,7 +24129,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>112.2016710533202</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24142,13 +24144,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
-        <v>156.1708888417951</v>
+        <v>39.34848094147665</v>
       </c>
       <c r="I22" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,16 +24171,16 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2818742419777</v>
@@ -24190,7 +24192,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24209,16 +24211,16 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>59.3883075968339</v>
+        <v>89.79231049789928</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
@@ -24251,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
@@ -24266,7 +24268,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24373,7 +24375,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>167.3098022590509</v>
@@ -24412,7 +24414,7 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S25" t="n">
-        <v>201.6805484054165</v>
+        <v>21.8741453697219</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,10 +24423,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24443,25 +24445,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>301.1017917298879</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>44.3664240087561</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24506,7 +24508,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24604,13 +24606,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>167.3098022590509</v>
@@ -24646,10 +24648,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S28" t="n">
-        <v>134.9863473781467</v>
+        <v>63.77302308703747</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24680,25 +24682,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>271.2963591019487</v>
+        <v>324.4813743340604</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,22 +24727,22 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24841,25 +24843,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>130.2386507606556</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24892,13 +24894,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401875</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24923,19 +24925,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>20.55927705156603</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,25 +24964,25 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>147.9111926018053</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -25072,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>160.6508054802591</v>
+        <v>44.88450425060891</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25120,7 +25122,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>212.1455389500189</v>
@@ -25135,13 +25137,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25160,16 +25162,16 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>24.74454051646165</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>151.9313162448613</v>
@@ -25199,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
@@ -25208,10 +25210,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25220,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>165.7694946553399</v>
       </c>
     </row>
     <row r="36">
@@ -25318,10 +25320,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>50.76536233032465</v>
       </c>
       <c r="G37" t="n">
         <v>167.3098022590509</v>
@@ -25330,7 +25332,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
         <v>45.19995918853699</v>
@@ -25375,10 +25377,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>179.6188967093588</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25391,25 +25393,25 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25445,13 +25447,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>170.1021609796515</v>
       </c>
       <c r="V38" t="n">
-        <v>204.2029934418883</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25546,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>85.19271039829752</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25603,19 +25605,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.83478528866354</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25628,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>89.79231049789934</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25640,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>73.76038744430531</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
@@ -25673,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
@@ -25688,7 +25690,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25789,16 +25791,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>11.42376369151691</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>156.1708888417951</v>
@@ -25807,7 +25809,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25831,13 +25833,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>19.95020101970775</v>
       </c>
       <c r="U43" t="n">
         <v>286.2818742419777</v>
@@ -25846,7 +25848,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25871,16 +25873,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>89.79231049789928</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>151.9313162448613</v>
@@ -25910,25 +25912,25 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>129.2229197589391</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26035,16 +26037,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26068,19 +26070,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>60.90363437865884</v>
       </c>
       <c r="U46" t="n">
-        <v>185.7729771778725</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>467445.7869376</v>
+        <v>448752.9057247414</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>477458.0775964577</v>
+        <v>451773.182970143</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>769512.6051115737</v>
+        <v>467445.7869376001</v>
       </c>
     </row>
     <row r="5">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>769512.6051115737</v>
+        <v>769512.6051115735</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>769512.6051115737</v>
+        <v>769512.6051115738</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>769512.6051115738</v>
+        <v>769512.6051115737</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>769512.6051115738</v>
+        <v>769512.6051115735</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>769512.6051115737</v>
+        <v>769512.6051115738</v>
       </c>
     </row>
     <row r="16">
@@ -26311,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>156006.1355264978</v>
+        <v>149544.6052781992</v>
       </c>
       <c r="C2" t="n">
-        <v>159463.6497950858</v>
+        <v>150588.1755146547</v>
       </c>
       <c r="D2" t="n">
-        <v>260237.3490141816</v>
+        <v>156006.1355264979</v>
       </c>
       <c r="E2" t="n">
         <v>260237.3490141816</v>
@@ -26326,31 +26328,31 @@
         <v>260237.3490141816</v>
       </c>
       <c r="G2" t="n">
-        <v>260237.3490141817</v>
+        <v>260237.3490141816</v>
       </c>
       <c r="H2" t="n">
-        <v>260237.3490141817</v>
+        <v>260237.3490141816</v>
       </c>
       <c r="I2" t="n">
         <v>260237.3490141816</v>
       </c>
       <c r="J2" t="n">
-        <v>260237.3490141817</v>
+        <v>260237.3490141816</v>
       </c>
       <c r="K2" t="n">
         <v>260237.3490141817</v>
       </c>
       <c r="L2" t="n">
+        <v>260237.3490141816</v>
+      </c>
+      <c r="M2" t="n">
         <v>260237.3490141817</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>260237.3490141817</v>
+      </c>
+      <c r="O2" t="n">
         <v>260237.3490141816</v>
-      </c>
-      <c r="N2" t="n">
-        <v>260237.3490141816</v>
-      </c>
-      <c r="O2" t="n">
-        <v>260237.3490141818</v>
       </c>
       <c r="P2" t="n">
         <v>260237.3490141816</v>
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>110394.4548749495</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
-        <v>15106.68758438935</v>
+        <v>4491.824968753434</v>
       </c>
       <c r="D3" t="n">
-        <v>417183.6221536879</v>
+        <v>22364.98695753535</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>407720.4376835744</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68875.69873124985</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
-        <v>3323.773824475296</v>
+        <v>913.25580245714</v>
       </c>
       <c r="L3" t="n">
-        <v>100763.3119392804</v>
+        <v>4727.563118847333</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>102434.1176906352</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>16914.68964098084</v>
+      </c>
+      <c r="C4" t="n">
+        <v>16922.92270143587</v>
+      </c>
+      <c r="D4" t="n">
         <v>16958.01308307726</v>
-      </c>
-      <c r="C4" t="n">
-        <v>16991.84893966586</v>
-      </c>
-      <c r="D4" t="n">
-        <v>18228.92756966326</v>
       </c>
       <c r="E4" t="n">
         <v>18228.92756966326</v>
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>48281.26876376167</v>
+      </c>
+      <c r="C5" t="n">
+        <v>48577.10433863014</v>
+      </c>
+      <c r="D5" t="n">
         <v>50134.40740683334</v>
-      </c>
-      <c r="C5" t="n">
-        <v>51181.37951678014</v>
-      </c>
-      <c r="D5" t="n">
-        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>49231.47806340946</v>
@@ -26497,16 +26499,16 @@
         <v>49231.47806340947</v>
       </c>
       <c r="L5" t="n">
+        <v>49231.47806340946</v>
+      </c>
+      <c r="M5" t="n">
         <v>49231.47806340947</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
+        <v>49231.47806340947</v>
+      </c>
+      <c r="O5" t="n">
         <v>49231.47806340946</v>
-      </c>
-      <c r="N5" t="n">
-        <v>49231.47806340946</v>
-      </c>
-      <c r="O5" t="n">
-        <v>49231.47806340947</v>
       </c>
       <c r="P5" t="n">
         <v>49231.47806340947</v>
@@ -26519,46 +26521,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-21480.73983836232</v>
+        <v>3579.215341908952</v>
       </c>
       <c r="C6" t="n">
-        <v>76183.73375425048</v>
+        <v>80596.32350583529</v>
       </c>
       <c r="D6" t="n">
-        <v>-258034.278772579</v>
+        <v>66548.72807905194</v>
       </c>
       <c r="E6" t="n">
-        <v>192776.9433811089</v>
+        <v>-214943.4943024655</v>
       </c>
       <c r="F6" t="n">
         <v>192776.9433811089</v>
       </c>
       <c r="G6" t="n">
-        <v>192776.943381109</v>
+        <v>192776.9433811089</v>
       </c>
       <c r="H6" t="n">
-        <v>192776.943381109</v>
+        <v>192776.9433811089</v>
       </c>
       <c r="I6" t="n">
         <v>192776.9433811089</v>
       </c>
       <c r="J6" t="n">
-        <v>123901.2446498591</v>
+        <v>129717.0007820027</v>
       </c>
       <c r="K6" t="n">
-        <v>189453.1695566337</v>
+        <v>191863.6875786518</v>
       </c>
       <c r="L6" t="n">
-        <v>92013.63144182862</v>
+        <v>188049.3802622615</v>
       </c>
       <c r="M6" t="n">
+        <v>90342.82569047378</v>
+      </c>
+      <c r="N6" t="n">
+        <v>192776.943381109</v>
+      </c>
+      <c r="O6" t="n">
         <v>192776.9433811089</v>
-      </c>
-      <c r="N6" t="n">
-        <v>192776.9433811089</v>
-      </c>
-      <c r="O6" t="n">
-        <v>192776.943381109</v>
       </c>
       <c r="P6" t="n">
         <v>192776.9433811089</v>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3.673862893242319</v>
+      </c>
+      <c r="D3" t="n">
         <v>23.01338268678938</v>
-      </c>
-      <c r="C3" t="n">
-        <v>35.02126071912534</v>
-      </c>
-      <c r="D3" t="n">
-        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>377.7436642170866</v>
@@ -26750,7 +26752,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="G3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="H3" t="n">
         <v>377.7436642170867</v>
@@ -26774,10 +26776,10 @@
         <v>377.7436642170867</v>
       </c>
       <c r="O3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="P3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
     </row>
     <row r="4">
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="C4" t="n">
+        <v>244.5627323611424</v>
+      </c>
+      <c r="D4" t="n">
         <v>263.2420339516666</v>
-      </c>
-      <c r="C4" t="n">
-        <v>276.1565137023555</v>
-      </c>
-      <c r="D4" t="n">
-        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>674.2872727545556</v>
@@ -26817,16 +26819,16 @@
         <v>674.2872727545557</v>
       </c>
       <c r="L4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="M4" t="n">
         <v>674.2872727545557</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
+        <v>674.2872727545557</v>
+      </c>
+      <c r="O4" t="n">
         <v>674.2872727545556</v>
-      </c>
-      <c r="N4" t="n">
-        <v>674.2872727545556</v>
-      </c>
-      <c r="O4" t="n">
-        <v>674.2872727545557</v>
       </c>
       <c r="P4" t="n">
         <v>674.2872727545557</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.01338268678938</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>12.00787803233596</v>
+        <v>3.673862893242319</v>
       </c>
       <c r="D3" t="n">
-        <v>342.7224034979613</v>
+        <v>19.33951979354706</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>354.7302815302972</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.2420339516666</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>12.91447975068888</v>
+        <v>3.548443483483339</v>
       </c>
       <c r="D4" t="n">
-        <v>398.1307590522001</v>
+        <v>18.6793015905242</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>411.045238802889</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.2420339516666</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
-        <v>12.91447975068888</v>
+        <v>3.548443483483339</v>
       </c>
       <c r="L4" t="n">
-        <v>398.1307590522001</v>
+        <v>18.67930159052409</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>411.0452388028891</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.2420339516666</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
-        <v>12.91447975068888</v>
+        <v>3.548443483483339</v>
       </c>
       <c r="L4" t="n">
-        <v>398.1307590522001</v>
+        <v>18.6793015905242</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>411.045238802889</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.09251611130367583</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9474806248887704</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.566727381034966</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.852189301760364</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>11.76839629324496</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>14.59973623455484</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>16.24501962895158</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>16.50788103019315</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>15.58792394841722</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>13.30393245060773</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544831</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>5.811515176679532</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>2.108210886332515</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0.4049892772318412</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0.007401288904294065</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04950048351498094</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4780704592104738</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.70429296312544</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>4.676710155246511</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>7.993242550750233</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>10.74790103688215</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>12.54229356430021</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>12.87425075418796</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>11.77742425104022</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>9.452421277522983</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>6.318693299210549</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>3.073372125605572</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9194497705523865</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0.1995216857467871</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0.003256610757564536</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.04149954254994806</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3689686601259021</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1.248004425047529</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.934017658281328</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>4.821492307166691</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>6.16985017147137</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>6.505241928988675</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>6.350561815847965</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>5.865771705150842</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>5.019181037131898</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.475020785705196</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>1.865970340473119</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0.7232238460750037</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1773162272588689</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0.002263611411815351</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1407889878155791</v>
+        <v>0.01476929806328569</v>
       </c>
       <c r="H5" t="n">
-        <v>1.4418552214663</v>
+        <v>0.1512560737906247</v>
       </c>
       <c r="I5" t="n">
-        <v>5.42776745276012</v>
+        <v>0.5693933635848223</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>1.253525711498795</v>
       </c>
       <c r="K5" t="n">
-        <v>17.90888720884599</v>
+        <v>1.878710098517679</v>
       </c>
       <c r="L5" t="n">
-        <v>22.21755819470702</v>
+        <v>2.330706004121959</v>
       </c>
       <c r="M5" t="n">
-        <v>24.72131435677233</v>
+        <v>2.593359508554916</v>
       </c>
       <c r="N5" t="n">
-        <v>25.12133106840334</v>
+        <v>2.635322776677227</v>
       </c>
       <c r="O5" t="n">
-        <v>23.72136057081218</v>
+        <v>2.488460569060429</v>
       </c>
       <c r="P5" t="n">
-        <v>20.24563243411507</v>
+        <v>2.123843523123063</v>
       </c>
       <c r="Q5" t="n">
-        <v>15.20362680796963</v>
+        <v>1.594918036231644</v>
       </c>
       <c r="R5" t="n">
-        <v>8.84383625587038</v>
+        <v>0.9277519194678708</v>
       </c>
       <c r="S5" t="n">
-        <v>3.208229059847513</v>
+        <v>0.3365553796171231</v>
       </c>
       <c r="T5" t="n">
-        <v>0.616303794162698</v>
+        <v>0.06465260227203316</v>
       </c>
       <c r="U5" t="n">
-        <v>0.01126311902524633</v>
+        <v>0.001181543845062855</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0753287494713262</v>
+        <v>0.007902271128860838</v>
       </c>
       <c r="H6" t="n">
-        <v>0.7275171330520189</v>
+        <v>0.07631930274452442</v>
       </c>
       <c r="I6" t="n">
-        <v>2.593555628727679</v>
+        <v>0.2720738086033228</v>
       </c>
       <c r="J6" t="n">
-        <v>7.116914878779991</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
-        <v>12.16394109335885</v>
+        <v>1.276043491891533</v>
       </c>
       <c r="L6" t="n">
-        <v>16.35591992358773</v>
+        <v>1.715797948395859</v>
       </c>
       <c r="M6" t="n">
-        <v>19.08658709192331</v>
+        <v>2.002255276817064</v>
       </c>
       <c r="N6" t="n">
-        <v>19.59175225833409</v>
+        <v>2.05524901609789</v>
       </c>
       <c r="O6" t="n">
-        <v>17.92262575689049</v>
+        <v>1.880151324242605</v>
       </c>
       <c r="P6" t="n">
-        <v>14.38448725650263</v>
+        <v>1.508987194773435</v>
       </c>
       <c r="Q6" t="n">
-        <v>9.615648792164377</v>
+        <v>1.008717977782306</v>
       </c>
       <c r="R6" t="n">
-        <v>4.676990252263571</v>
+        <v>0.4906339916673424</v>
       </c>
       <c r="S6" t="n">
-        <v>1.399198482504676</v>
+        <v>0.1467812203102001</v>
       </c>
       <c r="T6" t="n">
-        <v>0.3036277226497752</v>
+        <v>0.03185169810273293</v>
       </c>
       <c r="U6" t="n">
-        <v>0.004955838781008305</v>
+        <v>0.000519886258477687</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.06315309310006208</v>
+        <v>0.006624998659945165</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5614884095623704</v>
+        <v>0.05890226081296706</v>
       </c>
       <c r="I7" t="n">
-        <v>1.899185745227322</v>
+        <v>0.1992317778827147</v>
       </c>
       <c r="J7" t="n">
-        <v>4.464923682174389</v>
+        <v>0.4683874052581232</v>
       </c>
       <c r="K7" t="n">
-        <v>7.337241180170847</v>
+        <v>0.7697043897645381</v>
       </c>
       <c r="L7" t="n">
-        <v>9.389142586894685</v>
+        <v>0.9849566189522114</v>
       </c>
       <c r="M7" t="n">
-        <v>9.89953440294882</v>
+        <v>1.038498653576677</v>
       </c>
       <c r="N7" t="n">
-        <v>9.664145601394052</v>
+        <v>1.013805476753246</v>
       </c>
       <c r="O7" t="n">
-        <v>8.926402650179687</v>
+        <v>0.936413446952977</v>
       </c>
       <c r="P7" t="n">
-        <v>7.638079550938414</v>
+        <v>0.8012634742900949</v>
       </c>
       <c r="Q7" t="n">
-        <v>5.288210368587926</v>
+        <v>0.5547532968795902</v>
       </c>
       <c r="R7" t="n">
-        <v>2.839592713390063</v>
+        <v>0.2978840306553526</v>
       </c>
       <c r="S7" t="n">
-        <v>1.100586177025627</v>
+        <v>0.1154556584646807</v>
       </c>
       <c r="T7" t="n">
-        <v>0.2698359432457197</v>
+        <v>0.02830681245612934</v>
       </c>
       <c r="U7" t="n">
-        <v>0.003444714169094299</v>
+        <v>0.0003613635632697367</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>0.09251611130367583</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>0.9474806248887704</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>3.566727381034966</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>7.852189301760364</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>11.76839629324496</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>14.59973623455484</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>16.24501962895158</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>16.50788103019315</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>15.58792394841722</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>13.30393245060773</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>9.990699214544831</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>5.811515176679532</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>2.108210886332515</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>0.4049892772318412</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.007401288904294065</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.04950048351498094</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>0.4780704592104738</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>1.70429296312544</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>4.676710155246511</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>7.993242550750233</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>10.74790103688215</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>12.54229356430021</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>12.87425075418796</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>11.77742425104022</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>9.452421277522983</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>6.318693299210549</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>3.073372125605572</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>0.9194497705523865</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>0.1995216857467871</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.003256610757564536</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.04149954254994806</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>0.3689686601259021</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>1.248004425047529</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>2.934017658281328</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>4.821492307166691</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>6.16985017147137</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>6.505241928988675</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>6.350561815847965</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>5.865771705150842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>5.019181037131898</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>3.475020785705196</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>1.865970340473119</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>0.7232238460750037</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>0.1773162272588689</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.002263611411815351</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32230,19 +32232,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K17" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L17" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M17" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N17" t="n">
         <v>270.9617944338304</v>
@@ -32257,13 +32259,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S17" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32303,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I18" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
@@ -32330,22 +32332,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P18" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q18" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S18" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,16 +32384,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I19" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K19" t="n">
         <v>79.14039391302239</v>
@@ -32406,16 +32408,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P19" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R19" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S19" t="n">
         <v>11.87105908695336</v>
@@ -34126,19 +34128,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K41" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L41" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M41" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N41" t="n">
         <v>270.9617944338304</v>
@@ -34153,13 +34155,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S41" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34199,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I42" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34226,22 +34228,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P42" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q42" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S42" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,16 +34280,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I43" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
         <v>79.14039391302239</v>
@@ -34302,16 +34304,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P43" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R43" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S43" t="n">
         <v>11.87105908695336</v>
@@ -34363,19 +34365,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K44" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L44" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M44" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N44" t="n">
         <v>270.9617944338304</v>
@@ -34390,13 +34392,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S44" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34436,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I45" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34463,22 +34465,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P45" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q45" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S45" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T45" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,16 +34517,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I46" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J46" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K46" t="n">
         <v>79.14039391302239</v>
@@ -34539,16 +34541,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P46" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R46" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S46" t="n">
         <v>11.87105908695336</v>
@@ -34699,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>115.8239578194292</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L2" t="n">
-        <v>196.494535815018</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>235.4123198945113</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N2" t="n">
-        <v>224.4417418455864</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>166.2898937894759</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
-        <v>103.8696448668208</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34775,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>3.930118828988654</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>134.6170405889698</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>243.0338665604671</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>203.7667864659606</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>263.0434990833253</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="P3" t="n">
-        <v>193.9407825031299</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34860,19 +34862,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>33.75987543178751</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M4" t="n">
-        <v>46.08911889082926</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N4" t="n">
-        <v>50.48273419507656</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O4" t="n">
-        <v>30.45089961919052</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P4" t="n">
-        <v>2.297740302025386</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34936,25 +34938,25 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>121.9644487350302</v>
+        <v>105.9342716247019</v>
       </c>
       <c r="L5" t="n">
-        <v>204.1123577751702</v>
+        <v>184.2255055845852</v>
       </c>
       <c r="M5" t="n">
-        <v>243.8886146223321</v>
+        <v>221.7606597741147</v>
       </c>
       <c r="N5" t="n">
-        <v>233.0551918837966</v>
+        <v>210.5691835920705</v>
       </c>
       <c r="O5" t="n">
-        <v>174.4233304118708</v>
+        <v>153.1904304101191</v>
       </c>
       <c r="P5" t="n">
-        <v>110.8113448503282</v>
+        <v>92.68955593933616</v>
       </c>
       <c r="Q5" t="n">
-        <v>5.212927593424828</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>6.370323552522134</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>138.7877391315785</v>
+        <v>127.8998415301111</v>
       </c>
       <c r="L6" t="n">
-        <v>248.6418854471727</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>231.6067186693945</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="O6" t="n">
-        <v>269.1887005891756</v>
+        <v>94.24272062454136</v>
       </c>
       <c r="P6" t="n">
-        <v>198.8728484821096</v>
+        <v>185.9973484203803</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>71.10423162760989</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35097,19 +35099,19 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>36.97916784721082</v>
+        <v>28.57498187926835</v>
       </c>
       <c r="M7" t="n">
-        <v>49.4834113647894</v>
+        <v>40.62237561541726</v>
       </c>
       <c r="N7" t="n">
-        <v>53.79631798062265</v>
+        <v>45.14597785598184</v>
       </c>
       <c r="O7" t="n">
-        <v>33.51153056421936</v>
+        <v>25.52154136099265</v>
       </c>
       <c r="P7" t="n">
-        <v>4.916638815831902</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>115.8239578194292</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>196.494535815018</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>235.4123198945113</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>224.4417418455864</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>166.2898937894759</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>103.8696448668208</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>3.930118828988654</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>5.840541654727184</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>243.0338665604671</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>263.0434990833253</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>33.75987543178751</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>46.08911889082926</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>50.48273419507656</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>30.45089961919052</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>2.297740302025386</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35486,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>257.8255762031298</v>
@@ -35495,7 +35497,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M12" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
         <v>559.3197334338902</v>
@@ -35507,7 +35509,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35881,19 +35883,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K17" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L17" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M17" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N17" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O17" t="n">
         <v>406.5635087530452</v>
@@ -35960,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K18" t="n">
         <v>257.8255762031298</v>
@@ -35972,16 +35974,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O18" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P18" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36197,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K21" t="n">
         <v>257.8255762031298</v>
@@ -36212,7 +36214,7 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O21" t="n">
-        <v>401.1632560839191</v>
+        <v>325.1459203262123</v>
       </c>
       <c r="P21" t="n">
         <v>339.6412258735647</v>
@@ -36434,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K24" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L24" t="n">
         <v>408.7029475713857</v>
@@ -36455,7 +36457,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q24" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,7 +36676,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L27" t="n">
         <v>408.7029475713857</v>
@@ -36692,7 +36694,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q27" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,7 +36913,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L30" t="n">
         <v>408.7029475713857</v>
@@ -36920,7 +36922,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
@@ -37145,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K33" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L33" t="n">
         <v>408.7029475713857</v>
@@ -37157,7 +37159,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245898</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.9372285181306</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K35" t="n">
         <v>297.223041434342</v>
@@ -37394,7 +37396,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245898</v>
@@ -37403,7 +37405,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q36" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37622,7 +37624,7 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K39" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L39" t="n">
         <v>408.7029475713857</v>
@@ -37640,7 +37642,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q39" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,19 +37779,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K41" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L41" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N41" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
         <v>406.5635087530452</v>
@@ -37856,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L42" t="n">
-        <v>289.2671274730084</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M42" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
         <v>173.8110948137341</v>
@@ -38014,19 +38016,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K44" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L44" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M44" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N44" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O44" t="n">
         <v>406.5635087530452</v>
@@ -38096,7 +38098,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L45" t="n">
         <v>408.7029475713857</v>
@@ -38105,16 +38107,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O45" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P45" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
